--- a/archivo_notas.xlsx
+++ b/archivo_notas.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="44400" windowHeight="26720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37060" windowHeight="26740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Primer Bimestre" sheetId="3" r:id="rId2"/>
+    <sheet name="Segundo Bimestre" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="187">
   <si>
     <t>Nro.</t>
   </si>
@@ -910,7 +911,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -974,6 +975,7 @@
     <xf numFmtId="164" fontId="3" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1348,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView showGridLines="0" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -5464,7 +5466,7 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -9571,4 +9573,2300 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="34.83203125" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="32">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G2" s="12">
+        <v>9</v>
+      </c>
+      <c r="H2" s="18">
+        <f>+SUM(E2:G2)</f>
+        <v>17.5</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="39">
+        <f>4*(SUM(E2:G2)/30)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="40"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="32">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="H3" s="18">
+        <f t="shared" ref="H3:H57" si="0">+SUM(E3:G3)</f>
+        <v>11</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="39">
+        <f t="shared" ref="P3:P56" si="1">4*(SUM(E3:G3)/30)</f>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="40"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="39">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="40"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="32">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G5" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="40"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="32">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="12">
+        <v>9</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="39">
+        <f t="shared" si="1"/>
+        <v>2.8666666666666667</v>
+      </c>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="40"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="32">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12">
+        <v>10</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="39">
+        <f t="shared" si="1"/>
+        <v>3.0666666666666669</v>
+      </c>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="40"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="32">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>6</v>
+      </c>
+      <c r="G8" s="12">
+        <v>9</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="39">
+        <f t="shared" si="1"/>
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="40"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="G9" s="12">
+        <v>8</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="39">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="40"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="39">
+        <f t="shared" si="1"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="40"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G11" s="12">
+        <v>8</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="40"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>3</v>
+      </c>
+      <c r="G12" s="12">
+        <v>8</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="39">
+        <f t="shared" si="1"/>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="40"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3</v>
+      </c>
+      <c r="G13" s="12">
+        <v>10</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="39">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="40"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3</v>
+      </c>
+      <c r="G14" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="39">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="40"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="32">
+        <v>6</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="G15" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="39">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="40"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="32">
+        <v>9</v>
+      </c>
+      <c r="F16" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G16" s="12">
+        <v>8</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="40"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="32">
+        <v>6</v>
+      </c>
+      <c r="F17" s="9">
+        <v>7</v>
+      </c>
+      <c r="G17" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="H17" s="18">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="39">
+        <f t="shared" si="1"/>
+        <v>2.8666666666666667</v>
+      </c>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="40"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="F18" s="9">
+        <v>4</v>
+      </c>
+      <c r="G18" s="12">
+        <v>8</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="39">
+        <f t="shared" si="1"/>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="40"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>8</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="39">
+        <f t="shared" si="1"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="40"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="32">
+        <v>4</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="G20" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="39">
+        <f t="shared" si="1"/>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="40"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="32">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9">
+        <v>4</v>
+      </c>
+      <c r="G21" s="12">
+        <v>8</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="40"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="32">
+        <v>10.5</v>
+      </c>
+      <c r="F22" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="G22" s="12">
+        <v>9</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="39">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="40"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="32">
+        <v>6</v>
+      </c>
+      <c r="F23" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="G23" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="39">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="40"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="32">
+        <v>3</v>
+      </c>
+      <c r="F24" s="9">
+        <v>2</v>
+      </c>
+      <c r="G24" s="12">
+        <v>10</v>
+      </c>
+      <c r="H24" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="40"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="32">
+        <v>4</v>
+      </c>
+      <c r="F25" s="9">
+        <v>7</v>
+      </c>
+      <c r="G25" s="12">
+        <v>8</v>
+      </c>
+      <c r="H25" s="18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="14">
+        <v>5</v>
+      </c>
+      <c r="N25" s="9"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="39">
+        <f t="shared" si="1"/>
+        <v>2.5333333333333332</v>
+      </c>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="40"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>10</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="39">
+        <f t="shared" si="1"/>
+        <v>1.5333333333333334</v>
+      </c>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="40"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G27" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="H27" s="18">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="39">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="40"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="32">
+        <v>6</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="H28" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="39">
+        <f t="shared" si="1"/>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="40"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="32">
+        <v>6</v>
+      </c>
+      <c r="F29" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="39">
+        <f t="shared" si="1"/>
+        <v>1.5333333333333334</v>
+      </c>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="40"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="9">
+        <v>4</v>
+      </c>
+      <c r="G30" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="H30" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="39">
+        <f t="shared" si="1"/>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="40"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="32">
+        <v>3</v>
+      </c>
+      <c r="F31" s="9">
+        <v>6</v>
+      </c>
+      <c r="G31" s="12">
+        <v>8</v>
+      </c>
+      <c r="H31" s="18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="39">
+        <f t="shared" si="1"/>
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="40"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="F32" s="9">
+        <v>7</v>
+      </c>
+      <c r="G32" s="12">
+        <v>9</v>
+      </c>
+      <c r="H32" s="18">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="I32" s="20"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="40"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="32">
+        <v>4</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="I33" s="20"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="39">
+        <f t="shared" si="1"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="40"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="32">
+        <v>3</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="39">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="40"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="32">
+        <v>3</v>
+      </c>
+      <c r="F35" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="G35" s="12">
+        <v>10</v>
+      </c>
+      <c r="H35" s="18">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="39">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="40"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="32">
+        <v>8</v>
+      </c>
+      <c r="F36" s="9">
+        <v>9</v>
+      </c>
+      <c r="G36" s="12">
+        <v>8</v>
+      </c>
+      <c r="H36" s="18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="39">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="40"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="32">
+        <v>6</v>
+      </c>
+      <c r="F37" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="G37" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="39">
+        <f t="shared" si="1"/>
+        <v>2.9333333333333331</v>
+      </c>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="40"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="32">
+        <v>5</v>
+      </c>
+      <c r="F38" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="G38" s="12">
+        <v>9</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="39">
+        <f t="shared" si="1"/>
+        <v>2.8666666666666667</v>
+      </c>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="40"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="32">
+        <v>3</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="39">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="40"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="32">
+        <v>0</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0</v>
+      </c>
+      <c r="H40" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="40"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="32">
+        <v>4</v>
+      </c>
+      <c r="F41" s="9">
+        <v>7</v>
+      </c>
+      <c r="G41" s="12">
+        <v>8</v>
+      </c>
+      <c r="H41" s="18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="39">
+        <f t="shared" si="1"/>
+        <v>2.5333333333333332</v>
+      </c>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="40"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="32">
+        <v>2</v>
+      </c>
+      <c r="F42" s="9">
+        <v>3</v>
+      </c>
+      <c r="G42" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="H42" s="18">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="39">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="40"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="39">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="40"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="32">
+        <v>3</v>
+      </c>
+      <c r="F44" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="G44" s="12">
+        <v>9</v>
+      </c>
+      <c r="H44" s="18">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="39">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="40"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="32">
+        <v>6</v>
+      </c>
+      <c r="F45" s="9">
+        <v>5</v>
+      </c>
+      <c r="G45" s="12">
+        <v>10</v>
+      </c>
+      <c r="H45" s="18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="39">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="40"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="32">
+        <v>4</v>
+      </c>
+      <c r="F46" s="9">
+        <v>12</v>
+      </c>
+      <c r="G46" s="12">
+        <v>8</v>
+      </c>
+      <c r="H46" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="39">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="40"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="32">
+        <v>7.5</v>
+      </c>
+      <c r="F47" s="9">
+        <v>4</v>
+      </c>
+      <c r="G47" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="H47" s="18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="39">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="40"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="F48" s="9">
+        <v>6</v>
+      </c>
+      <c r="G48" s="12">
+        <v>10</v>
+      </c>
+      <c r="H48" s="18">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="I48" s="20"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="39">
+        <f t="shared" si="1"/>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="40"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="32">
+        <v>7</v>
+      </c>
+      <c r="F49" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="G49" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="H49" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I49" s="20"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="39">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="40"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="F50" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="G50" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="H50" s="18">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="I50" s="20"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="39">
+        <f t="shared" si="1"/>
+        <v>1.9333333333333333</v>
+      </c>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="40"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="32">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
+      <c r="H51" s="18">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="I51" s="20"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="39">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="40"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="32">
+        <v>1</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G52" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="H52" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I52" s="20"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="39">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="40"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="32">
+        <v>5</v>
+      </c>
+      <c r="F53" s="9">
+        <v>3</v>
+      </c>
+      <c r="G53" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="H53" s="18">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="I53" s="20"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="39">
+        <f t="shared" si="1"/>
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="40"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="32">
+        <v>5</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1</v>
+      </c>
+      <c r="G54" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="H54" s="18">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="I54" s="20"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="39">
+        <f t="shared" si="1"/>
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="40"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="32">
+        <v>1</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G55" s="12">
+        <v>10</v>
+      </c>
+      <c r="H55" s="18">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="I55" s="20"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="39">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="40"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="32">
+        <v>3</v>
+      </c>
+      <c r="F56" s="9">
+        <v>6</v>
+      </c>
+      <c r="G56" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="H56" s="18">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="I56" s="20"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="39">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="41"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E57" s="43">
+        <f>AVERAGE(E2:E56)</f>
+        <v>3.6818181818181817</v>
+      </c>
+      <c r="F57" s="43">
+        <f>AVERAGE(F2:F56)</f>
+        <v>4.4818181818181815</v>
+      </c>
+      <c r="G57" s="43">
+        <f>AVERAGE(G2:G56)</f>
+        <v>7.4363636363636365</v>
+      </c>
+      <c r="H57" s="18">
+        <f t="shared" si="0"/>
+        <v>15.600000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/archivo_notas.xlsx
+++ b/archivo_notas.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37060" windowHeight="26740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38000" windowHeight="26740" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Primer Bimestre" sheetId="3" r:id="rId2"/>
-    <sheet name="Segundo Bimestre" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId2"/>
+    <sheet name="Primer Bimestre" sheetId="3" r:id="rId3"/>
+    <sheet name="Segundo Bimestre" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="203">
   <si>
     <t>Nro.</t>
   </si>
@@ -587,6 +588,54 @@
   </si>
   <si>
     <t>BIMESTRE</t>
+  </si>
+  <si>
+    <t>Correcion 1</t>
+  </si>
+  <si>
+    <t>Correcion 2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>VAL</t>
+  </si>
+  <si>
+    <t>COEF</t>
+  </si>
+  <si>
+    <t>CALF</t>
+  </si>
+  <si>
+    <t>Trab. Grupal</t>
+  </si>
+  <si>
+    <t>2 BIMESTRE</t>
+  </si>
+  <si>
+    <t>ESTIMADO EXAMEN</t>
+  </si>
+  <si>
+    <t>SUPLETORIO</t>
+  </si>
+  <si>
+    <t>PERDIDA</t>
   </si>
 </sst>
 </file>
@@ -596,7 +645,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -680,8 +729,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,8 +858,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -871,6 +975,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -911,7 +1041,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -975,7 +1105,74 @@
     <xf numFmtId="164" fontId="3" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1350,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="V1" sqref="V1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5463,10 +5660,1152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N367"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="8" width="4.6640625" style="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+    </row>
+    <row r="2" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="69">
+        <v>1</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+    </row>
+    <row r="3" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="69">
+        <v>2</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+    </row>
+    <row r="4" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="69">
+        <v>3</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+    </row>
+    <row r="5" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="69">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+    </row>
+    <row r="6" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="69">
+        <v>5</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+    </row>
+    <row r="7" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="69">
+        <v>6</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+    </row>
+    <row r="8" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="69">
+        <v>7</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+    </row>
+    <row r="9" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="69">
+        <v>8</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+    </row>
+    <row r="10" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="69">
+        <v>9</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+    </row>
+    <row r="11" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="69">
+        <v>10</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+    </row>
+    <row r="12" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="69">
+        <v>11</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+    </row>
+    <row r="13" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="69">
+        <v>12</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+    </row>
+    <row r="14" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="69">
+        <v>13</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+    </row>
+    <row r="15" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="69">
+        <v>14</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+    </row>
+    <row r="16" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="69">
+        <v>15</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+    </row>
+    <row r="17" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="69">
+        <v>16</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+    </row>
+    <row r="18" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="69">
+        <v>17</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+    </row>
+    <row r="19" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="69">
+        <v>18</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+    </row>
+    <row r="20" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="69">
+        <v>19</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+    </row>
+    <row r="21" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="69">
+        <v>20</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+    </row>
+    <row r="22" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="69">
+        <v>21</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+    </row>
+    <row r="23" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="69">
+        <v>22</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+    </row>
+    <row r="24" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="69">
+        <v>23</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+    </row>
+    <row r="25" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="69">
+        <v>24</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+    </row>
+    <row r="26" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="69">
+        <v>25</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+    </row>
+    <row r="27" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="69">
+        <v>26</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+    </row>
+    <row r="28" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="69">
+        <v>27</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+    </row>
+    <row r="29" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="69">
+        <v>28</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+    </row>
+    <row r="30" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="69">
+        <v>29</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+    </row>
+    <row r="31" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="69">
+        <v>30</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+    </row>
+    <row r="32" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="69">
+        <v>31</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+    </row>
+    <row r="33" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="69">
+        <v>32</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+    </row>
+    <row r="34" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="69">
+        <v>33</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+    </row>
+    <row r="35" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="69">
+        <v>34</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+    </row>
+    <row r="36" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="69">
+        <v>35</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+    </row>
+    <row r="37" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="69">
+        <v>36</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+    </row>
+    <row r="38" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="69">
+        <v>37</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+    </row>
+    <row r="39" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="69">
+        <v>38</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+    </row>
+    <row r="40" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="69">
+        <v>39</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+    </row>
+    <row r="41" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="69">
+        <v>40</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+    </row>
+    <row r="42" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="69">
+        <v>41</v>
+      </c>
+      <c r="B42" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+    </row>
+    <row r="43" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="69">
+        <v>42</v>
+      </c>
+      <c r="B43" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+    </row>
+    <row r="44" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="69">
+        <v>43</v>
+      </c>
+      <c r="B44" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+    </row>
+    <row r="45" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="69">
+        <v>44</v>
+      </c>
+      <c r="B45" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+    </row>
+    <row r="46" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="69">
+        <v>45</v>
+      </c>
+      <c r="B46" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+    </row>
+    <row r="47" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="69">
+        <v>46</v>
+      </c>
+      <c r="B47" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+    </row>
+    <row r="48" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="69">
+        <v>47</v>
+      </c>
+      <c r="B48" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+    </row>
+    <row r="49" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="69">
+        <v>48</v>
+      </c>
+      <c r="B49" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+    </row>
+    <row r="50" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="69">
+        <v>49</v>
+      </c>
+      <c r="B50" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+    </row>
+    <row r="51" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="69">
+        <v>50</v>
+      </c>
+      <c r="B51" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+    </row>
+    <row r="52" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="69">
+        <v>51</v>
+      </c>
+      <c r="B52" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+    </row>
+    <row r="53" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="69">
+        <v>52</v>
+      </c>
+      <c r="B53" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+    </row>
+    <row r="54" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="69">
+        <v>53</v>
+      </c>
+      <c r="B54" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+    </row>
+    <row r="55" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="69">
+        <v>54</v>
+      </c>
+      <c r="B55" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+    </row>
+    <row r="56" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="69">
+        <v>55</v>
+      </c>
+      <c r="B56" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+    </row>
+    <row r="57" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" spans="3:8" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" spans="3:8" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" spans="3:8" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" spans="3:8" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" spans="3:8" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" spans="3:8" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" spans="3:8" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" spans="3:8" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" spans="3:8" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" spans="3:8" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" spans="3:8" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" spans="3:8" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" spans="3:8" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" spans="3:8" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C367" s="67"/>
+      <c r="D367" s="67"/>
+      <c r="E367" s="67"/>
+      <c r="F367" s="67"/>
+      <c r="G367" s="67"/>
+      <c r="H367" s="67"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -9575,22 +10914,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:AD57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="D15" sqref="D15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="34.83203125" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="52"/>
+    <col min="7" max="7" width="12.33203125" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="52"/>
+    <col min="11" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9603,23 +10949,23 @@
       <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>181</v>
+      <c r="I1" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>188</v>
       </c>
       <c r="K1" s="23" t="s">
         <v>174</v>
@@ -9627,26 +10973,40 @@
       <c r="L1" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="O1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>185</v>
       </c>
+      <c r="P1" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>200</v>
+      </c>
       <c r="R1" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="S1" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="T1" s="76"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -9659,34 +11019,68 @@
       <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="47">
         <v>3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="48">
         <v>5.5</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="49">
         <v>9</v>
       </c>
-      <c r="H2" s="18">
-        <f>+SUM(E2:G2)</f>
-        <v>17.5</v>
-      </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="39">
-        <f>4*(SUM(E2:G2)/30)</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="40"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H2" s="49">
+        <v>10</v>
+      </c>
+      <c r="I2" s="50">
+        <v>2</v>
+      </c>
+      <c r="J2" s="20">
+        <v>2</v>
+      </c>
+      <c r="K2" s="24">
+        <v>5</v>
+      </c>
+      <c r="L2" s="26">
+        <v>5</v>
+      </c>
+      <c r="M2" s="37">
+        <f>+SUM(K2:L2)/5</f>
+        <v>2</v>
+      </c>
+      <c r="N2" s="39">
+        <f>4*(SUM(E2:H2)/40)</f>
+        <v>2.75</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="79">
+        <f>+M2+N2+O2</f>
+        <v>4.75</v>
+      </c>
+      <c r="Q2" s="40">
+        <f>(14-'Primer Bimestre'!V2-'Segundo Bimestre'!P2)*(5/2)</f>
+        <v>5.0204141719953643</v>
+      </c>
+      <c r="R2" s="40">
+        <f>+IF(Q2&gt;=10,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="40">
+        <f>+IF((4+'Primer Bimestre'!V2+P2)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="77"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -9699,34 +11093,68 @@
       <c r="D3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="47">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="48">
         <v>2.5</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="49">
         <v>7.5</v>
       </c>
-      <c r="H3" s="18">
-        <f t="shared" ref="H3:H57" si="0">+SUM(E3:G3)</f>
-        <v>11</v>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="39">
-        <f t="shared" ref="P3:P56" si="1">4*(SUM(E3:G3)/30)</f>
-        <v>1.4666666666666666</v>
-      </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="40"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H3" s="49">
+        <v>7.5</v>
+      </c>
+      <c r="I3" s="50">
+        <v>2</v>
+      </c>
+      <c r="J3" s="20">
+        <v>2</v>
+      </c>
+      <c r="K3" s="24">
+        <v>5</v>
+      </c>
+      <c r="L3" s="26">
+        <v>5</v>
+      </c>
+      <c r="M3" s="37">
+        <f t="shared" ref="M3:M56" si="0">+SUM(K3:L3)/5</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="39">
+        <f t="shared" ref="N3:N56" si="1">4*(SUM(E3:H3)/40)</f>
+        <v>1.85</v>
+      </c>
+      <c r="O3" s="16"/>
+      <c r="P3" s="79">
+        <f t="shared" ref="P3:P56" si="2">+M3+N3+O3</f>
+        <v>3.85</v>
+      </c>
+      <c r="Q3" s="40">
+        <f>(14-'Primer Bimestre'!V3-'Segundo Bimestre'!P3)*(5/2)</f>
+        <v>7.2010293786245363</v>
+      </c>
+      <c r="R3" s="40">
+        <f t="shared" ref="R3:R56" si="3">+IF(Q3&gt;=10,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="40">
+        <f>+IF((4+'Primer Bimestre'!V3+P3)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="77"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -9739,34 +11167,68 @@
       <c r="D4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="47">
         <v>0.5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="48">
         <v>6.5</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="49">
+        <v>4</v>
+      </c>
+      <c r="H4" s="49">
+        <v>4</v>
+      </c>
+      <c r="I4" s="50">
+        <v>2</v>
+      </c>
+      <c r="J4" s="20">
+        <v>2</v>
+      </c>
+      <c r="K4" s="24">
         <v>0</v>
       </c>
-      <c r="H4" s="18">
+      <c r="L4" s="26">
+        <v>5</v>
+      </c>
+      <c r="M4" s="37">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="39">
+        <v>1</v>
+      </c>
+      <c r="N4" s="39">
         <f t="shared" si="1"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="40"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="P4" s="79">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q4" s="40">
+        <f>(14-'Primer Bimestre'!V4-'Segundo Bimestre'!P4)*(5/2)</f>
+        <v>16.306351671995362</v>
+      </c>
+      <c r="R4" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S4" s="40">
+        <f>+IF((4+'Primer Bimestre'!V4+P4)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="77"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -9779,114 +11241,216 @@
       <c r="D5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="32">
-        <v>2</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="47">
+        <v>2</v>
+      </c>
+      <c r="F5" s="48">
         <v>5.5</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="49">
         <v>7.5</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="49">
+        <v>6.5</v>
+      </c>
+      <c r="I5" s="50">
+        <v>2</v>
+      </c>
+      <c r="J5" s="20">
+        <v>2</v>
+      </c>
+      <c r="K5" s="24">
+        <v>5</v>
+      </c>
+      <c r="L5" s="26">
+        <v>5</v>
+      </c>
+      <c r="M5" s="37">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="39">
+        <v>2</v>
+      </c>
+      <c r="N5" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="40"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2.15</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="79">
+        <f t="shared" si="2"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Q5" s="40">
+        <f>(14-'Primer Bimestre'!V5-'Segundo Bimestre'!P5)*(5/2)</f>
+        <v>7.2715302434239337</v>
+      </c>
+      <c r="R5" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="40">
+        <f>+IF((4+'Primer Bimestre'!V5+P5)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="77"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="71" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="47">
         <v>4</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="48">
         <v>8.5</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="49">
         <v>9</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="49">
+        <v>10</v>
+      </c>
+      <c r="I6" s="50">
+        <v>2</v>
+      </c>
+      <c r="J6" s="20">
+        <v>2</v>
+      </c>
+      <c r="K6" s="24">
+        <v>5</v>
+      </c>
+      <c r="L6" s="26">
+        <v>5</v>
+      </c>
+      <c r="M6" s="37">
         <f t="shared" si="0"/>
-        <v>21.5</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="39">
+        <v>2</v>
+      </c>
+      <c r="N6" s="39">
         <f t="shared" si="1"/>
-        <v>2.8666666666666667</v>
-      </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="40"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3.15</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="79">
+        <f t="shared" si="2"/>
+        <v>5.15</v>
+      </c>
+      <c r="Q6" s="40">
+        <f>(14-'Primer Bimestre'!V6-'Segundo Bimestre'!P6)*(5/2)</f>
+        <v>0.82032873362672287</v>
+      </c>
+      <c r="R6" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="40">
+        <f>+IF((4+'Primer Bimestre'!V6+P6)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="77"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="71" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="47">
         <v>6</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="48">
         <v>7</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="49">
         <v>10</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="49">
+        <v>9</v>
+      </c>
+      <c r="I7" s="50">
+        <v>2</v>
+      </c>
+      <c r="J7" s="20">
+        <v>2</v>
+      </c>
+      <c r="K7" s="24">
+        <v>5</v>
+      </c>
+      <c r="L7" s="26">
+        <v>5</v>
+      </c>
+      <c r="M7" s="37">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="39">
+        <v>2</v>
+      </c>
+      <c r="N7" s="39">
         <f t="shared" si="1"/>
-        <v>3.0666666666666669</v>
-      </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="40"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3.2</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="79">
+        <f t="shared" si="2"/>
+        <v>5.2</v>
+      </c>
+      <c r="Q7" s="40">
+        <f>(14-'Primer Bimestre'!V7-'Segundo Bimestre'!P7)*(5/2)</f>
+        <v>3.1581722357673936</v>
+      </c>
+      <c r="R7" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="40">
+        <f>+IF((4+'Primer Bimestre'!V7+P7)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="77"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -9899,74 +11463,142 @@
       <c r="D8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="32">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="47">
+        <v>2</v>
+      </c>
+      <c r="F8" s="48">
         <v>6</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="49">
         <v>9</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="49">
+        <v>6</v>
+      </c>
+      <c r="I8" s="50">
+        <v>2</v>
+      </c>
+      <c r="J8" s="20">
+        <v>2</v>
+      </c>
+      <c r="K8" s="24">
+        <v>5</v>
+      </c>
+      <c r="L8" s="26">
+        <v>5</v>
+      </c>
+      <c r="M8" s="37">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="39">
+        <v>2</v>
+      </c>
+      <c r="N8" s="39">
         <f t="shared" si="1"/>
-        <v>2.2666666666666666</v>
-      </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="40"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="79">
+        <f t="shared" si="2"/>
+        <v>4.3</v>
+      </c>
+      <c r="Q8" s="40">
+        <f>(14-'Primer Bimestre'!V8-'Segundo Bimestre'!P8)*(5/2)</f>
+        <v>6.9730073050552965</v>
+      </c>
+      <c r="R8" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="40">
+        <f>+IF((4+'Primer Bimestre'!V8+P8)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="77"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="72" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="74">
+        <v>2.9</v>
+      </c>
+      <c r="F9" s="48">
         <v>8.5</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="49">
         <v>8</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="49">
+        <v>10</v>
+      </c>
+      <c r="I9" s="50">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>2</v>
+      </c>
+      <c r="K9" s="24">
+        <v>5</v>
+      </c>
+      <c r="L9" s="26">
+        <v>5</v>
+      </c>
+      <c r="M9" s="37">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="39">
+        <v>2</v>
+      </c>
+      <c r="N9" s="39">
         <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="40"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2.94</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="79">
+        <f t="shared" si="2"/>
+        <v>4.9399999999999995</v>
+      </c>
+      <c r="Q9" s="40">
+        <f>(14-'Primer Bimestre'!V9-'Segundo Bimestre'!P9)*(5/2)</f>
+        <v>1.4243465907695807</v>
+      </c>
+      <c r="R9" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="40">
+        <f>+IF((4+'Primer Bimestre'!V9+P9)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="77"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -9979,34 +11611,68 @@
       <c r="D10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="47">
         <v>2.5</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="48">
         <v>1</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="49">
         <v>0</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="49">
+        <v>0</v>
+      </c>
+      <c r="I10" s="50">
+        <v>2</v>
+      </c>
+      <c r="J10" s="20">
+        <v>2</v>
+      </c>
+      <c r="K10" s="24">
+        <v>5</v>
+      </c>
+      <c r="L10" s="26">
+        <v>5</v>
+      </c>
+      <c r="M10" s="37">
         <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="39">
+        <v>2</v>
+      </c>
+      <c r="N10" s="39">
         <f t="shared" si="1"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="40"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.35</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="79">
+        <f t="shared" si="2"/>
+        <v>2.35</v>
+      </c>
+      <c r="Q10" s="40">
+        <f>(14-'Primer Bimestre'!V10-'Segundo Bimestre'!P10)*(5/2)</f>
+        <v>19.549553571428572</v>
+      </c>
+      <c r="R10" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="40">
+        <f>+IF((4+'Primer Bimestre'!V10+P10)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="77"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -10019,34 +11685,72 @@
       <c r="D11" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="47">
         <v>1.5</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="48">
         <v>5.5</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="49">
         <v>8</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="49">
+        <v>4.5</v>
+      </c>
+      <c r="I11" s="50">
+        <v>2</v>
+      </c>
+      <c r="J11" s="20">
+        <v>2</v>
+      </c>
+      <c r="K11" s="24">
+        <v>5</v>
+      </c>
+      <c r="L11" s="26">
+        <v>5</v>
+      </c>
+      <c r="M11" s="37">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="39">
+        <v>2</v>
+      </c>
+      <c r="N11" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="40"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1.95</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="79">
+        <f t="shared" si="2"/>
+        <v>3.95</v>
+      </c>
+      <c r="Q11" s="40">
+        <f>(14-'Primer Bimestre'!V11-'Segundo Bimestre'!P11)*(5/2)</f>
+        <v>10.152901785714283</v>
+      </c>
+      <c r="R11" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="40">
+        <f>+IF((4+'Primer Bimestre'!V11+P11)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="83"/>
+      <c r="U11" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="V11" s="73">
+        <v>4</v>
+      </c>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -10059,74 +11763,152 @@
       <c r="D12" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="47">
         <v>0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="48">
         <v>3</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="49">
         <v>8</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="49">
+        <v>3</v>
+      </c>
+      <c r="I12" s="50">
+        <v>2</v>
+      </c>
+      <c r="J12" s="20">
+        <v>2</v>
+      </c>
+      <c r="K12" s="24">
+        <v>5</v>
+      </c>
+      <c r="L12" s="26">
+        <v>5</v>
+      </c>
+      <c r="M12" s="37">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="39">
+        <v>2</v>
+      </c>
+      <c r="N12" s="39">
         <f t="shared" si="1"/>
-        <v>1.4666666666666666</v>
-      </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="40"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1.4</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="79">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
+      </c>
+      <c r="Q12" s="40">
+        <f>(14-'Primer Bimestre'!V12-'Segundo Bimestre'!P12)*(5/2)</f>
+        <v>13.382179880944459</v>
+      </c>
+      <c r="R12" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S12" s="40">
+        <f>+IF((4+'Primer Bimestre'!V12+P12)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="83"/>
+      <c r="U12" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="V12" s="86">
+        <f>10/12</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="72" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="47">
         <v>6.5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="48">
         <v>3</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="49">
         <v>10</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="49">
+        <v>10</v>
+      </c>
+      <c r="I13" s="50">
+        <v>2</v>
+      </c>
+      <c r="J13" s="20">
+        <v>2</v>
+      </c>
+      <c r="K13" s="24">
+        <v>5</v>
+      </c>
+      <c r="L13" s="26">
+        <v>5</v>
+      </c>
+      <c r="M13" s="37">
         <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="39">
+        <v>2</v>
+      </c>
+      <c r="N13" s="39">
         <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="40"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2.95</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="79">
+        <f t="shared" si="2"/>
+        <v>4.95</v>
+      </c>
+      <c r="Q13" s="40">
+        <f>(14-'Primer Bimestre'!V13-'Segundo Bimestre'!P13)*(5/2)</f>
+        <v>6.1014409577096469</v>
+      </c>
+      <c r="R13" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="40">
+        <f>+IF((4+'Primer Bimestre'!V13+P13)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="83"/>
+      <c r="U13" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="V13" s="86">
+        <f>+V11*V12</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -10139,34 +11921,68 @@
       <c r="D14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="47">
         <v>0</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="48">
         <v>3</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="49">
         <v>9.5</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="I14" s="50">
+        <v>2</v>
+      </c>
+      <c r="J14" s="20">
+        <v>2</v>
+      </c>
+      <c r="K14" s="24">
+        <v>5</v>
+      </c>
+      <c r="L14" s="26">
+        <v>5</v>
+      </c>
+      <c r="M14" s="37">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="39">
+        <v>2</v>
+      </c>
+      <c r="N14" s="39">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="40"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="79">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q14" s="40">
+        <f>(14-'Primer Bimestre'!V14-'Segundo Bimestre'!P14)*(5/2)</f>
+        <v>12.216932160860727</v>
+      </c>
+      <c r="R14" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="40">
+        <f>+IF((4+'Primer Bimestre'!V14+P14)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="77"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -10179,716 +11995,1326 @@
       <c r="D15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="47">
         <v>6</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="48">
         <v>3.5</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="49">
         <v>8.5</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="I15" s="50">
+        <v>2</v>
+      </c>
+      <c r="J15" s="20">
+        <v>2</v>
+      </c>
+      <c r="K15" s="24">
+        <v>5</v>
+      </c>
+      <c r="L15" s="26">
+        <v>5</v>
+      </c>
+      <c r="M15" s="37">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N15" s="39">
+        <f t="shared" si="1"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="79">
+        <f t="shared" si="2"/>
+        <v>4.05</v>
+      </c>
+      <c r="Q15" s="40">
+        <f>(14-'Primer Bimestre'!V15-'Segundo Bimestre'!P15)*(5/2)</f>
+        <v>4.2362270054498214</v>
+      </c>
+      <c r="R15" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="40">
+        <f>+IF((4+'Primer Bimestre'!V15+P15)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="77"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="47">
+        <v>9</v>
+      </c>
+      <c r="F16" s="48">
+        <v>5.5</v>
+      </c>
+      <c r="G16" s="49">
+        <v>8</v>
+      </c>
+      <c r="H16" s="49">
+        <v>10</v>
+      </c>
+      <c r="I16" s="50">
+        <v>2</v>
+      </c>
+      <c r="J16" s="20">
+        <v>2</v>
+      </c>
+      <c r="K16" s="24">
+        <v>5</v>
+      </c>
+      <c r="L16" s="26">
+        <v>5</v>
+      </c>
+      <c r="M16" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N16" s="39">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="79">
+        <f t="shared" si="2"/>
+        <v>5.25</v>
+      </c>
+      <c r="Q16" s="40">
+        <f>(14-'Primer Bimestre'!V16-'Segundo Bimestre'!P16)*(5/2)</f>
+        <v>2.7464405708621964</v>
+      </c>
+      <c r="R16" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="40">
+        <f>+IF((4+'Primer Bimestre'!V16+P16)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="77"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="47">
+        <v>6</v>
+      </c>
+      <c r="F17" s="48">
+        <v>7</v>
+      </c>
+      <c r="G17" s="49">
+        <v>8.5</v>
+      </c>
+      <c r="H17" s="49">
+        <v>6.5</v>
+      </c>
+      <c r="I17" s="50">
+        <v>2</v>
+      </c>
+      <c r="J17" s="20">
+        <v>2</v>
+      </c>
+      <c r="K17" s="24">
+        <v>5</v>
+      </c>
+      <c r="L17" s="26">
+        <v>5</v>
+      </c>
+      <c r="M17" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N17" s="39">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="79">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="Q17" s="40">
+        <f>(14-'Primer Bimestre'!V17-'Segundo Bimestre'!P17)*(5/2)</f>
+        <v>2.6997887851479097</v>
+      </c>
+      <c r="R17" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="40">
+        <f>+IF((4+'Primer Bimestre'!V17+P17)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="77"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="47">
+        <v>6.5</v>
+      </c>
+      <c r="F18" s="48">
+        <v>4</v>
+      </c>
+      <c r="G18" s="49">
+        <v>8</v>
+      </c>
+      <c r="H18" s="49">
+        <v>6.5</v>
+      </c>
+      <c r="I18" s="50">
+        <v>2</v>
+      </c>
+      <c r="J18" s="20">
+        <v>2</v>
+      </c>
+      <c r="K18" s="24">
+        <v>5</v>
+      </c>
+      <c r="L18" s="26">
+        <v>5</v>
+      </c>
+      <c r="M18" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N18" s="39">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="O18" s="16"/>
+      <c r="P18" s="79">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q18" s="40">
+        <f>(14-'Primer Bimestre'!V18-'Segundo Bimestre'!P18)*(5/2)</f>
+        <v>3.8118423565764825</v>
+      </c>
+      <c r="R18" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="40">
+        <f>+IF((4+'Primer Bimestre'!V18+P18)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="77"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+    </row>
+    <row r="19" spans="1:30" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="53">
         <v>18</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="39">
+      <c r="B19" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="56">
+        <v>0</v>
+      </c>
+      <c r="F19" s="57">
+        <v>0</v>
+      </c>
+      <c r="G19" s="57">
+        <v>8</v>
+      </c>
+      <c r="H19" s="57">
+        <v>0</v>
+      </c>
+      <c r="I19" s="57">
+        <v>2</v>
+      </c>
+      <c r="J19" s="58">
+        <v>2</v>
+      </c>
+      <c r="K19" s="58">
+        <v>5</v>
+      </c>
+      <c r="L19" s="58">
+        <v>5</v>
+      </c>
+      <c r="M19" s="59">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N19" s="60">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="O19" s="58"/>
+      <c r="P19" s="85">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q19" s="60">
+        <f>(14-'Primer Bimestre'!V19-'Segundo Bimestre'!P19)*(5/2)</f>
+        <v>18.171996542290351</v>
+      </c>
+      <c r="R19" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="40">
+        <f>+IF((4+'Primer Bimestre'!V19+P19)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="77"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="47">
+        <v>4</v>
+      </c>
+      <c r="F20" s="48">
+        <v>4.5</v>
+      </c>
+      <c r="G20" s="49">
+        <v>7.5</v>
+      </c>
+      <c r="H20" s="49">
+        <v>6.5</v>
+      </c>
+      <c r="I20" s="50">
+        <v>2</v>
+      </c>
+      <c r="J20" s="20">
+        <v>2</v>
+      </c>
+      <c r="K20" s="24">
+        <v>5</v>
+      </c>
+      <c r="L20" s="26">
+        <v>5</v>
+      </c>
+      <c r="M20" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N20" s="39">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="79">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="Q20" s="40">
+        <f>(14-'Primer Bimestre'!V20-'Segundo Bimestre'!P20)*(5/2)</f>
+        <v>5.3792530708621955</v>
+      </c>
+      <c r="R20" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="40">
+        <f>+IF((4+'Primer Bimestre'!V20+P20)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="77"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="47">
+        <v>3</v>
+      </c>
+      <c r="F21" s="75">
+        <v>3.3</v>
+      </c>
+      <c r="G21" s="49">
+        <v>8</v>
+      </c>
+      <c r="H21" s="49">
+        <v>4.5</v>
+      </c>
+      <c r="I21" s="50">
+        <v>2</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0</v>
+      </c>
+      <c r="K21" s="24">
+        <v>5</v>
+      </c>
+      <c r="L21" s="26">
+        <v>5</v>
+      </c>
+      <c r="M21" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N21" s="39">
+        <f t="shared" si="1"/>
+        <v>1.8800000000000001</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="79">
+        <f t="shared" si="2"/>
+        <v>3.88</v>
+      </c>
+      <c r="Q21" s="40">
+        <f>(14-'Primer Bimestre'!V21-'Segundo Bimestre'!P21)*(5/2)</f>
+        <v>10.5273315963338</v>
+      </c>
+      <c r="R21" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="40">
+        <f>+IF((4+'Primer Bimestre'!V21+P21)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="77"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="47">
+        <v>10</v>
+      </c>
+      <c r="F22" s="48">
+        <v>7.5</v>
+      </c>
+      <c r="G22" s="49">
+        <v>9</v>
+      </c>
+      <c r="H22" s="49">
+        <v>10</v>
+      </c>
+      <c r="I22" s="50">
+        <v>2</v>
+      </c>
+      <c r="J22" s="20">
+        <v>2</v>
+      </c>
+      <c r="K22" s="24">
+        <v>5</v>
+      </c>
+      <c r="L22" s="26">
+        <v>5</v>
+      </c>
+      <c r="M22" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N22" s="39">
+        <f t="shared" si="1"/>
+        <v>3.65</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="79">
+        <f t="shared" si="2"/>
+        <v>5.65</v>
+      </c>
+      <c r="Q22" s="40">
+        <f>(14-'Primer Bimestre'!V22-'Segundo Bimestre'!P22)*(5/2)</f>
+        <v>5.4340524905227561E-2</v>
+      </c>
+      <c r="R22" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="40">
+        <f>+IF((4+'Primer Bimestre'!V22+P22)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="77"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="47">
+        <v>6</v>
+      </c>
+      <c r="F23" s="48">
+        <v>3.5</v>
+      </c>
+      <c r="G23" s="49">
+        <v>8.5</v>
+      </c>
+      <c r="H23" s="49">
+        <v>8.5</v>
+      </c>
+      <c r="I23" s="50">
+        <v>2</v>
+      </c>
+      <c r="J23" s="20">
+        <v>2</v>
+      </c>
+      <c r="K23" s="24">
+        <v>5</v>
+      </c>
+      <c r="L23" s="26">
+        <v>5</v>
+      </c>
+      <c r="M23" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N23" s="39">
+        <f t="shared" si="1"/>
+        <v>2.65</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="79">
+        <f t="shared" si="2"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Q23" s="40">
+        <f>(14-'Primer Bimestre'!V23-'Segundo Bimestre'!P23)*(5/2)</f>
+        <v>0.49384945347665798</v>
+      </c>
+      <c r="R23" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="40">
+        <f>+IF((4+'Primer Bimestre'!V23+P23)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="77"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="47">
+        <v>3</v>
+      </c>
+      <c r="F24" s="48">
+        <v>2</v>
+      </c>
+      <c r="G24" s="49">
+        <v>10</v>
+      </c>
+      <c r="H24" s="49">
+        <v>2</v>
+      </c>
+      <c r="I24" s="50">
+        <v>2</v>
+      </c>
+      <c r="J24" s="20">
+        <v>2</v>
+      </c>
+      <c r="K24" s="24">
+        <v>5</v>
+      </c>
+      <c r="L24" s="26">
+        <v>5</v>
+      </c>
+      <c r="M24" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N24" s="39">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="O24" s="16"/>
+      <c r="P24" s="79">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+      <c r="Q24" s="40">
+        <f>(14-'Primer Bimestre'!V24-'Segundo Bimestre'!P24)*(5/2)</f>
+        <v>12.23092511371892</v>
+      </c>
+      <c r="R24" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S24" s="40">
+        <f>+IF((4+'Primer Bimestre'!V24+P24)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="77"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="47">
+        <v>4</v>
+      </c>
+      <c r="F25" s="48">
+        <v>7</v>
+      </c>
+      <c r="G25" s="49">
+        <v>8</v>
+      </c>
+      <c r="H25" s="49">
+        <v>6.5</v>
+      </c>
+      <c r="I25" s="50">
+        <v>2</v>
+      </c>
+      <c r="J25" s="20">
+        <v>2</v>
+      </c>
+      <c r="K25" s="24">
+        <v>5</v>
+      </c>
+      <c r="L25" s="26">
+        <v>5</v>
+      </c>
+      <c r="M25" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N25" s="39">
+        <f t="shared" si="1"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="79">
+        <f t="shared" si="2"/>
+        <v>4.55</v>
+      </c>
+      <c r="Q25" s="40">
+        <f>(14-'Primer Bimestre'!V25-'Segundo Bimestre'!P25)*(5/2)</f>
+        <v>10.58236607142857</v>
+      </c>
+      <c r="R25" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S25" s="40">
+        <f>+IF((4+'Primer Bimestre'!V25+P25)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="77"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="48">
+        <v>0</v>
+      </c>
+      <c r="G26" s="49">
+        <v>10</v>
+      </c>
+      <c r="H26" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="I26" s="50">
+        <v>2</v>
+      </c>
+      <c r="J26" s="20">
+        <v>2</v>
+      </c>
+      <c r="K26" s="24">
+        <v>5</v>
+      </c>
+      <c r="L26" s="26">
+        <v>5</v>
+      </c>
+      <c r="M26" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N26" s="39">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="O26" s="16"/>
+      <c r="P26" s="79">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
+      </c>
+      <c r="Q26" s="40">
+        <f>(14-'Primer Bimestre'!V26-'Segundo Bimestre'!P26)*(5/2)</f>
+        <v>12.71186248199642</v>
+      </c>
+      <c r="R26" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S26" s="40">
+        <f>+IF((4+'Primer Bimestre'!V26+P26)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="77"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="G27" s="49">
+        <v>9.5</v>
+      </c>
+      <c r="H27" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="50">
+        <v>2</v>
+      </c>
+      <c r="J27" s="20">
+        <v>2</v>
+      </c>
+      <c r="K27" s="24">
+        <v>5</v>
+      </c>
+      <c r="L27" s="26">
+        <v>5</v>
+      </c>
+      <c r="M27" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N27" s="39">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="79">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
+      </c>
+      <c r="Q27" s="40">
+        <f>(14-'Primer Bimestre'!V27-'Segundo Bimestre'!P27)*(5/2)</f>
+        <v>13.345105519341004</v>
+      </c>
+      <c r="R27" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S27" s="40">
+        <f>+IF((4+'Primer Bimestre'!V27+P27)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="77"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="47">
+        <v>6</v>
+      </c>
+      <c r="F28" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="49">
+        <v>9.5</v>
+      </c>
+      <c r="H28" s="49">
+        <v>9</v>
+      </c>
+      <c r="I28" s="50">
+        <v>2</v>
+      </c>
+      <c r="J28" s="20">
+        <v>2</v>
+      </c>
+      <c r="K28" s="24">
+        <v>5</v>
+      </c>
+      <c r="L28" s="26">
+        <v>5</v>
+      </c>
+      <c r="M28" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N28" s="39">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="O28" s="16"/>
+      <c r="P28" s="79">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q28" s="40">
+        <f>(14-'Primer Bimestre'!V28-'Segundo Bimestre'!P28)*(5/2)</f>
+        <v>10.531609735767393</v>
+      </c>
+      <c r="R28" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S28" s="40">
+        <f>+IF((4+'Primer Bimestre'!V28+P28)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="77"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="62"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="47">
+        <v>6</v>
+      </c>
+      <c r="F29" s="48">
+        <v>5.5</v>
+      </c>
+      <c r="G29" s="49">
+        <v>9</v>
+      </c>
+      <c r="H29" s="49">
+        <v>9</v>
+      </c>
+      <c r="I29" s="50">
+        <v>2</v>
+      </c>
+      <c r="J29" s="20">
+        <v>2</v>
+      </c>
+      <c r="K29" s="24">
+        <v>5</v>
+      </c>
+      <c r="L29" s="26">
+        <v>5</v>
+      </c>
+      <c r="M29" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N29" s="39">
+        <f t="shared" si="1"/>
+        <v>2.95</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="79">
+        <f t="shared" si="2"/>
+        <v>4.95</v>
+      </c>
+      <c r="Q29" s="40">
+        <f>(14-'Primer Bimestre'!V29-'Segundo Bimestre'!P29)*(5/2)</f>
+        <v>6.9642857142857135</v>
+      </c>
+      <c r="R29" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="40">
+        <f>+IF((4+'Primer Bimestre'!V29+P29)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="77"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="62"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="48">
+        <v>4</v>
+      </c>
+      <c r="G30" s="49">
+        <v>9.5</v>
+      </c>
+      <c r="H30" s="49">
+        <v>5.5</v>
+      </c>
+      <c r="I30" s="50">
+        <v>2</v>
+      </c>
+      <c r="J30" s="20">
+        <v>2</v>
+      </c>
+      <c r="K30" s="24">
+        <v>5</v>
+      </c>
+      <c r="L30" s="26">
+        <v>5</v>
+      </c>
+      <c r="M30" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N30" s="39">
+        <f t="shared" si="1"/>
+        <v>1.95</v>
+      </c>
+      <c r="O30" s="16"/>
+      <c r="P30" s="79">
+        <f t="shared" si="2"/>
+        <v>3.95</v>
+      </c>
+      <c r="Q30" s="40">
+        <f>(14-'Primer Bimestre'!V30-'Segundo Bimestre'!P30)*(5/2)</f>
+        <v>14.3324039686582</v>
+      </c>
+      <c r="R30" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S30" s="40">
+        <f>+IF((4+'Primer Bimestre'!V30+P30)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="77"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="47">
+        <v>3</v>
+      </c>
+      <c r="F31" s="48">
+        <v>6</v>
+      </c>
+      <c r="G31" s="49">
+        <v>8</v>
+      </c>
+      <c r="H31" s="49">
+        <v>7</v>
+      </c>
+      <c r="I31" s="50">
+        <v>2</v>
+      </c>
+      <c r="J31" s="20">
+        <v>2</v>
+      </c>
+      <c r="K31" s="24">
+        <v>5</v>
+      </c>
+      <c r="L31" s="26">
+        <v>5</v>
+      </c>
+      <c r="M31" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N31" s="39">
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="40"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="32">
-        <v>9</v>
-      </c>
-      <c r="F16" s="9">
-        <v>5.5</v>
-      </c>
-      <c r="G16" s="12">
-        <v>8</v>
-      </c>
-      <c r="H16" s="18">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="39">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="40"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="32">
-        <v>6</v>
-      </c>
-      <c r="F17" s="9">
-        <v>7</v>
-      </c>
-      <c r="G17" s="12">
-        <v>8.5</v>
-      </c>
-      <c r="H17" s="18">
-        <f t="shared" si="0"/>
-        <v>21.5</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="39">
-        <f t="shared" si="1"/>
-        <v>2.8666666666666667</v>
-      </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="40"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="32">
-        <v>6.5</v>
-      </c>
-      <c r="F18" s="9">
-        <v>4</v>
-      </c>
-      <c r="G18" s="12">
-        <v>8</v>
-      </c>
-      <c r="H18" s="18">
-        <f t="shared" si="0"/>
-        <v>18.5</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="39">
-        <f t="shared" si="1"/>
-        <v>2.4666666666666668</v>
-      </c>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="40"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="32">
+      <c r="O31" s="16"/>
+      <c r="P31" s="79">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q31" s="40">
+        <f>(14-'Primer Bimestre'!V31-'Segundo Bimestre'!P31)*(5/2)</f>
+        <v>8.0174107142857132</v>
+      </c>
+      <c r="R31" s="40">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F19" s="9">
+      <c r="S31" s="40">
+        <f>+IF((4+'Primer Bimestre'!V31+P31)&lt;9,1,0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="12">
-        <v>8</v>
-      </c>
-      <c r="H19" s="18">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="39">
-        <f t="shared" si="1"/>
-        <v>1.0666666666666667</v>
-      </c>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="40"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="32">
-        <v>4</v>
-      </c>
-      <c r="F20" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="G20" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="H20" s="18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="39">
-        <f t="shared" si="1"/>
-        <v>2.1333333333333333</v>
-      </c>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="40"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="32">
-        <v>3</v>
-      </c>
-      <c r="F21" s="9">
-        <v>4</v>
-      </c>
-      <c r="G21" s="12">
-        <v>8</v>
-      </c>
-      <c r="H21" s="18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="39">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="40"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="32">
-        <v>10.5</v>
-      </c>
-      <c r="F22" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="G22" s="12">
-        <v>9</v>
-      </c>
-      <c r="H22" s="18">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="39">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="40"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="32">
-        <v>6</v>
-      </c>
-      <c r="F23" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="G23" s="12">
-        <v>8.5</v>
-      </c>
-      <c r="H23" s="18">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="39">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="40"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="32">
-        <v>3</v>
-      </c>
-      <c r="F24" s="9">
-        <v>2</v>
-      </c>
-      <c r="G24" s="12">
-        <v>10</v>
-      </c>
-      <c r="H24" s="18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="39">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="40"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="32">
-        <v>4</v>
-      </c>
-      <c r="F25" s="9">
-        <v>7</v>
-      </c>
-      <c r="G25" s="12">
-        <v>8</v>
-      </c>
-      <c r="H25" s="18">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="14">
-        <v>5</v>
-      </c>
-      <c r="N25" s="9"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="39">
-        <f t="shared" si="1"/>
-        <v>2.5333333333333332</v>
-      </c>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="40"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12">
-        <v>10</v>
-      </c>
-      <c r="H26" s="18">
-        <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="39">
-        <f t="shared" si="1"/>
-        <v>1.5333333333333334</v>
-      </c>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="40"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="F27" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="G27" s="12">
-        <v>9.5</v>
-      </c>
-      <c r="H27" s="18">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="39">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="40"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="32">
-        <v>6</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G28" s="12">
-        <v>9.5</v>
-      </c>
-      <c r="H28" s="18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="39">
-        <f t="shared" si="1"/>
-        <v>2.1333333333333333</v>
-      </c>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="40"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="32">
-        <v>6</v>
-      </c>
-      <c r="F29" s="9">
-        <v>5.5</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="18">
-        <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="39">
-        <f t="shared" si="1"/>
-        <v>1.5333333333333334</v>
-      </c>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="40"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="F30" s="9">
-        <v>4</v>
-      </c>
-      <c r="G30" s="12">
-        <v>9.5</v>
-      </c>
-      <c r="H30" s="18">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="39">
-        <f t="shared" si="1"/>
-        <v>1.8666666666666667</v>
-      </c>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="40"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="32">
-        <v>3</v>
-      </c>
-      <c r="F31" s="9">
-        <v>6</v>
-      </c>
-      <c r="G31" s="12">
-        <v>8</v>
-      </c>
-      <c r="H31" s="18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="39">
-        <f t="shared" si="1"/>
-        <v>2.2666666666666666</v>
-      </c>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="40"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T31" s="77"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="62"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="72" t="s">
         <v>95</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="47">
         <v>6.5</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="48">
         <v>7</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="49">
         <v>9</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="49">
+        <v>10</v>
+      </c>
+      <c r="I32" s="50">
+        <v>2</v>
+      </c>
+      <c r="J32" s="20">
+        <v>2</v>
+      </c>
+      <c r="K32" s="24">
+        <v>5</v>
+      </c>
+      <c r="L32" s="26">
+        <v>5</v>
+      </c>
+      <c r="M32" s="37">
         <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="39">
+        <v>2</v>
+      </c>
+      <c r="N32" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="40"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3.25</v>
+      </c>
+      <c r="O32" s="16"/>
+      <c r="P32" s="79">
+        <f t="shared" si="2"/>
+        <v>5.25</v>
+      </c>
+      <c r="Q32" s="40">
+        <f>(14-'Primer Bimestre'!V32-'Segundo Bimestre'!P32)*(5/2)</f>
+        <v>0.93804810056679511</v>
+      </c>
+      <c r="R32" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="40">
+        <f>+IF((4+'Primer Bimestre'!V32+P32)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="77"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="62"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -10901,34 +13327,68 @@
       <c r="D33" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="47">
         <v>4</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="48">
         <v>2.5</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="49">
+        <v>3.5</v>
+      </c>
+      <c r="H33" s="49">
+        <v>3.5</v>
+      </c>
+      <c r="I33" s="50">
+        <v>2</v>
+      </c>
+      <c r="J33" s="20">
+        <v>2</v>
+      </c>
+      <c r="K33" s="24">
+        <v>5</v>
+      </c>
+      <c r="L33" s="26">
+        <v>5</v>
+      </c>
+      <c r="M33" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N33" s="39">
+        <f t="shared" si="1"/>
+        <v>1.35</v>
+      </c>
+      <c r="O33" s="16"/>
+      <c r="P33" s="79">
+        <f t="shared" si="2"/>
+        <v>3.35</v>
+      </c>
+      <c r="Q33" s="40">
+        <f>(14-'Primer Bimestre'!V33-'Segundo Bimestre'!P33)*(5/2)</f>
+        <v>13.826785714285714</v>
+      </c>
+      <c r="R33" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S33" s="40">
+        <f>+IF((4+'Primer Bimestre'!V33+P33)&lt;9,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="18">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="39">
-        <f t="shared" si="1"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="40"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T33" s="77"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="62"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -10941,34 +13401,68 @@
       <c r="D34" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="47">
         <v>3</v>
       </c>
-      <c r="F34" s="9">
-        <v>2</v>
-      </c>
-      <c r="G34" s="12">
+      <c r="F34" s="48">
+        <v>2</v>
+      </c>
+      <c r="G34" s="49">
+        <v>5</v>
+      </c>
+      <c r="H34" s="49">
+        <v>5</v>
+      </c>
+      <c r="I34" s="50">
+        <v>2</v>
+      </c>
+      <c r="J34" s="20">
+        <v>2</v>
+      </c>
+      <c r="K34" s="24">
+        <v>5</v>
+      </c>
+      <c r="L34" s="26">
+        <v>5</v>
+      </c>
+      <c r="M34" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N34" s="39">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="O34" s="16"/>
+      <c r="P34" s="79">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q34" s="40">
+        <f>(14-'Primer Bimestre'!V34-'Segundo Bimestre'!P34)*(5/2)</f>
+        <v>11.337859735767397</v>
+      </c>
+      <c r="R34" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S34" s="40">
+        <f>+IF((4+'Primer Bimestre'!V34+P34)&lt;9,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="18">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="39">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="40"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T34" s="77"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="62"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -10981,154 +13475,290 @@
       <c r="D35" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="47">
         <v>3</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="48">
         <v>6.5</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="49">
         <v>10</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="49">
+        <v>3</v>
+      </c>
+      <c r="I35" s="50">
+        <v>2</v>
+      </c>
+      <c r="J35" s="20">
+        <v>2</v>
+      </c>
+      <c r="K35" s="24">
+        <v>5</v>
+      </c>
+      <c r="L35" s="26">
+        <v>5</v>
+      </c>
+      <c r="M35" s="37">
         <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="39">
+        <v>2</v>
+      </c>
+      <c r="N35" s="39">
         <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="40"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2.25</v>
+      </c>
+      <c r="O35" s="16"/>
+      <c r="P35" s="79">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="Q35" s="40">
+        <f>(14-'Primer Bimestre'!V35-'Segundo Bimestre'!P35)*(5/2)</f>
+        <v>6.8241392677107022</v>
+      </c>
+      <c r="R35" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="40">
+        <f>+IF((4+'Primer Bimestre'!V35+P35)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="77"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="62"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="72" t="s">
         <v>107</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="47">
         <v>8</v>
       </c>
-      <c r="F36" s="9">
-        <v>9</v>
-      </c>
-      <c r="G36" s="12">
+      <c r="F36" s="48">
+        <v>9.5</v>
+      </c>
+      <c r="G36" s="49">
         <v>8</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="49">
+        <v>10</v>
+      </c>
+      <c r="I36" s="50">
+        <v>2</v>
+      </c>
+      <c r="J36" s="20">
+        <v>2</v>
+      </c>
+      <c r="K36" s="24">
+        <v>5</v>
+      </c>
+      <c r="L36" s="26">
+        <v>5</v>
+      </c>
+      <c r="M36" s="37">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="39">
+        <v>2</v>
+      </c>
+      <c r="N36" s="39">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="40"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3.55</v>
+      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" s="79">
+        <f t="shared" si="2"/>
+        <v>5.55</v>
+      </c>
+      <c r="Q36" s="40">
+        <f>(14-'Primer Bimestre'!V36-'Segundo Bimestre'!P36)*(5/2)</f>
+        <v>-1.0122388884846534</v>
+      </c>
+      <c r="R36" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="40">
+        <f>+IF((4+'Primer Bimestre'!V36+P36)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="77"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="62"/>
+      <c r="AD36" s="62"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="72" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="47">
         <v>6</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="48">
         <v>8.5</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="49">
         <v>7.5</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="49">
+        <v>10</v>
+      </c>
+      <c r="I37" s="50">
+        <v>2</v>
+      </c>
+      <c r="J37" s="20">
+        <v>2</v>
+      </c>
+      <c r="K37" s="24">
+        <v>5</v>
+      </c>
+      <c r="L37" s="26">
+        <v>5</v>
+      </c>
+      <c r="M37" s="37">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="39">
+        <v>2</v>
+      </c>
+      <c r="N37" s="39">
         <f t="shared" si="1"/>
-        <v>2.9333333333333331</v>
-      </c>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="40"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3.2</v>
+      </c>
+      <c r="O37" s="16"/>
+      <c r="P37" s="79">
+        <f t="shared" si="2"/>
+        <v>5.2</v>
+      </c>
+      <c r="Q37" s="40">
+        <f>(14-'Primer Bimestre'!V37-'Segundo Bimestre'!P37)*(5/2)</f>
+        <v>2.2698780708621968</v>
+      </c>
+      <c r="R37" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="40">
+        <f>+IF((4+'Primer Bimestre'!V37+P37)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="77"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="62"/>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="62"/>
+      <c r="AD37" s="62"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="72" t="s">
         <v>113</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="32">
-        <v>5</v>
-      </c>
-      <c r="F38" s="9">
+      <c r="E38" s="47">
+        <v>5</v>
+      </c>
+      <c r="F38" s="48">
         <v>7.5</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="49">
         <v>9</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="49">
+        <v>10</v>
+      </c>
+      <c r="I38" s="50">
+        <v>2</v>
+      </c>
+      <c r="J38" s="20">
+        <v>2</v>
+      </c>
+      <c r="K38" s="24">
+        <v>5</v>
+      </c>
+      <c r="L38" s="26">
+        <v>5</v>
+      </c>
+      <c r="M38" s="37">
         <f t="shared" si="0"/>
-        <v>21.5</v>
-      </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="39">
+        <v>2</v>
+      </c>
+      <c r="N38" s="39">
         <f t="shared" si="1"/>
-        <v>2.8666666666666667</v>
-      </c>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="40"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3.15</v>
+      </c>
+      <c r="O38" s="16"/>
+      <c r="P38" s="79">
+        <f t="shared" si="2"/>
+        <v>5.15</v>
+      </c>
+      <c r="Q38" s="40">
+        <f>(14-'Primer Bimestre'!V38-'Segundo Bimestre'!P38)*(5/2)</f>
+        <v>1.4073823050552958</v>
+      </c>
+      <c r="R38" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="40">
+        <f>+IF((4+'Primer Bimestre'!V38+P38)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="77"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="62"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -11141,74 +13771,142 @@
       <c r="D39" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="47">
         <v>3</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="48">
         <v>1</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="49">
         <v>8.5</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="49">
+        <v>3</v>
+      </c>
+      <c r="I39" s="50">
+        <v>2</v>
+      </c>
+      <c r="J39" s="20">
+        <v>2</v>
+      </c>
+      <c r="K39" s="24">
+        <v>5</v>
+      </c>
+      <c r="L39" s="26">
+        <v>5</v>
+      </c>
+      <c r="M39" s="37">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="39">
+        <v>2</v>
+      </c>
+      <c r="N39" s="39">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="40"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="O39" s="16"/>
+      <c r="P39" s="79">
+        <f t="shared" si="2"/>
+        <v>3.55</v>
+      </c>
+      <c r="Q39" s="40">
+        <f>(14-'Primer Bimestre'!V39-'Segundo Bimestre'!P39)*(5/2)</f>
+        <v>6.3694859340212489</v>
+      </c>
+      <c r="R39" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="40">
+        <f>+IF((4+'Primer Bimestre'!V39+P39)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="77"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="62"/>
+    </row>
+    <row r="40" spans="1:30" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="53">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="56">
         <v>0</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="57">
         <v>0</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="57">
         <v>0</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="57">
+        <v>0</v>
+      </c>
+      <c r="I40" s="57">
+        <v>0</v>
+      </c>
+      <c r="J40" s="58">
+        <v>0</v>
+      </c>
+      <c r="K40" s="58">
+        <v>0</v>
+      </c>
+      <c r="L40" s="58">
+        <v>0</v>
+      </c>
+      <c r="M40" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="39">
+      <c r="N40" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="40"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O40" s="58"/>
+      <c r="P40" s="85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="60">
+        <f>(14-'Primer Bimestre'!V40-'Segundo Bimestre'!P40)*(5/2)</f>
+        <v>21.674640264232607</v>
+      </c>
+      <c r="R40" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S40" s="40">
+        <f>+IF((4+'Primer Bimestre'!V40+P40)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="77"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="62"/>
+      <c r="AA40" s="62"/>
+      <c r="AB40" s="62"/>
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="62"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -11221,34 +13919,68 @@
       <c r="D41" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="47">
         <v>4</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="48">
         <v>7</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="49">
         <v>8</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="49">
+        <v>6</v>
+      </c>
+      <c r="I41" s="50">
+        <v>2</v>
+      </c>
+      <c r="J41" s="20">
+        <v>2</v>
+      </c>
+      <c r="K41" s="24">
+        <v>5</v>
+      </c>
+      <c r="L41" s="26">
+        <v>5</v>
+      </c>
+      <c r="M41" s="37">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="39">
+        <v>2</v>
+      </c>
+      <c r="N41" s="39">
         <f t="shared" si="1"/>
-        <v>2.5333333333333332</v>
-      </c>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="40"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+      <c r="O41" s="16"/>
+      <c r="P41" s="79">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q41" s="40">
+        <f>(14-'Primer Bimestre'!V41-'Segundo Bimestre'!P41)*(5/2)</f>
+        <v>4.8091888095158897</v>
+      </c>
+      <c r="R41" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="40">
+        <f>+IF((4+'Primer Bimestre'!V41+P41)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="77"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="62"/>
+      <c r="Z41" s="62"/>
+      <c r="AA41" s="62"/>
+      <c r="AB41" s="62"/>
+      <c r="AC41" s="62"/>
+      <c r="AD41" s="62"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -11261,74 +13993,142 @@
       <c r="D42" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="32">
-        <v>2</v>
-      </c>
-      <c r="F42" s="9">
+      <c r="E42" s="47">
+        <v>2</v>
+      </c>
+      <c r="F42" s="48">
         <v>3</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="49">
         <v>7.5</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="49">
+        <v>6</v>
+      </c>
+      <c r="I42" s="50">
+        <v>2</v>
+      </c>
+      <c r="J42" s="20">
+        <v>2</v>
+      </c>
+      <c r="K42" s="24">
+        <v>5</v>
+      </c>
+      <c r="L42" s="26">
+        <v>5</v>
+      </c>
+      <c r="M42" s="37">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="39">
+        <v>2</v>
+      </c>
+      <c r="N42" s="39">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="40"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="O42" s="16"/>
+      <c r="P42" s="79">
+        <f t="shared" si="2"/>
+        <v>3.85</v>
+      </c>
+      <c r="Q42" s="40">
+        <f>(14-'Primer Bimestre'!V42-'Segundo Bimestre'!P42)*(5/2)</f>
+        <v>8.7705519479124376</v>
+      </c>
+      <c r="R42" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="40">
+        <f>+IF((4+'Primer Bimestre'!V42+P42)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="77"/>
+      <c r="U42" s="62"/>
+      <c r="V42" s="62"/>
+      <c r="W42" s="62"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="62"/>
+      <c r="AA42" s="62"/>
+      <c r="AB42" s="62"/>
+      <c r="AC42" s="62"/>
+      <c r="AD42" s="62"/>
+    </row>
+    <row r="43" spans="1:30" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="53">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="56">
         <v>0.5</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="57">
         <v>0</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="57">
         <v>0</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="57">
+        <v>0</v>
+      </c>
+      <c r="I43" s="57">
+        <v>0</v>
+      </c>
+      <c r="J43" s="58">
+        <v>0</v>
+      </c>
+      <c r="K43" s="58">
+        <v>5</v>
+      </c>
+      <c r="L43" s="58">
+        <v>0</v>
+      </c>
+      <c r="M43" s="59">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="39">
+        <v>1</v>
+      </c>
+      <c r="N43" s="60">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="40"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+      <c r="O43" s="58"/>
+      <c r="P43" s="85">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="Q43" s="60">
+        <f>(14-'Primer Bimestre'!V43-'Segundo Bimestre'!P43)*(5/2)</f>
+        <v>18.90026023808732</v>
+      </c>
+      <c r="R43" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S43" s="40">
+        <f>+IF((4+'Primer Bimestre'!V43+P43)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="77"/>
+      <c r="U43" s="62"/>
+      <c r="V43" s="62"/>
+      <c r="W43" s="62"/>
+      <c r="X43" s="62"/>
+      <c r="Y43" s="62"/>
+      <c r="Z43" s="62"/>
+      <c r="AA43" s="62"/>
+      <c r="AB43" s="62"/>
+      <c r="AC43" s="62"/>
+      <c r="AD43" s="62"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -11341,154 +14141,290 @@
       <c r="D44" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="47">
         <v>3</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="48">
         <v>7.5</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="49">
         <v>9</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="49">
+        <v>8</v>
+      </c>
+      <c r="I44" s="50">
+        <v>2</v>
+      </c>
+      <c r="J44" s="20">
+        <v>2</v>
+      </c>
+      <c r="K44" s="24">
+        <v>5</v>
+      </c>
+      <c r="L44" s="26">
+        <v>5</v>
+      </c>
+      <c r="M44" s="37">
         <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="39">
+        <v>2</v>
+      </c>
+      <c r="N44" s="39">
         <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="40"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2.75</v>
+      </c>
+      <c r="O44" s="16"/>
+      <c r="P44" s="79">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="Q44" s="40">
+        <f>(14-'Primer Bimestre'!V44-'Segundo Bimestre'!P44)*(5/2)</f>
+        <v>7.376339285714284</v>
+      </c>
+      <c r="R44" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="40">
+        <f>+IF((4+'Primer Bimestre'!V44+P44)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="77"/>
+      <c r="U44" s="62"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="62"/>
+      <c r="AA44" s="62"/>
+      <c r="AB44" s="62"/>
+      <c r="AC44" s="62"/>
+      <c r="AD44" s="62"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="72" t="s">
         <v>134</v>
       </c>
       <c r="D45" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="47">
         <v>6</v>
       </c>
-      <c r="F45" s="9">
-        <v>5</v>
-      </c>
-      <c r="G45" s="12">
+      <c r="F45" s="48">
+        <v>5</v>
+      </c>
+      <c r="G45" s="49">
         <v>10</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="49">
+        <v>10</v>
+      </c>
+      <c r="I45" s="50">
+        <v>2</v>
+      </c>
+      <c r="J45" s="20">
+        <v>2</v>
+      </c>
+      <c r="K45" s="24">
+        <v>5</v>
+      </c>
+      <c r="L45" s="26">
+        <v>5</v>
+      </c>
+      <c r="M45" s="37">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="39">
+        <v>2</v>
+      </c>
+      <c r="N45" s="39">
         <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="40"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3.1</v>
+      </c>
+      <c r="O45" s="16"/>
+      <c r="P45" s="79">
+        <f t="shared" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q45" s="40">
+        <f>(14-'Primer Bimestre'!V45-'Segundo Bimestre'!P45)*(5/2)</f>
+        <v>4.1916393994332086</v>
+      </c>
+      <c r="R45" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="40">
+        <f>+IF((4+'Primer Bimestre'!V45+P45)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="77"/>
+      <c r="U45" s="62"/>
+      <c r="V45" s="62"/>
+      <c r="W45" s="62"/>
+      <c r="X45" s="62"/>
+      <c r="Y45" s="62"/>
+      <c r="Z45" s="62"/>
+      <c r="AA45" s="62"/>
+      <c r="AB45" s="62"/>
+      <c r="AC45" s="62"/>
+      <c r="AD45" s="62"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="72" t="s">
         <v>137</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="32">
-        <v>4</v>
-      </c>
-      <c r="F46" s="9">
-        <v>12</v>
-      </c>
-      <c r="G46" s="12">
+      <c r="E46" s="74">
+        <v>3.5</v>
+      </c>
+      <c r="F46" s="48">
+        <v>10</v>
+      </c>
+      <c r="G46" s="49">
         <v>8</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="49">
+        <v>10</v>
+      </c>
+      <c r="I46" s="50">
+        <v>0</v>
+      </c>
+      <c r="J46" s="20">
+        <v>2</v>
+      </c>
+      <c r="K46" s="24">
+        <v>5</v>
+      </c>
+      <c r="L46" s="26">
+        <v>5</v>
+      </c>
+      <c r="M46" s="37">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="39">
+        <v>2</v>
+      </c>
+      <c r="N46" s="39">
         <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="40"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3.15</v>
+      </c>
+      <c r="O46" s="16"/>
+      <c r="P46" s="79">
+        <f t="shared" si="2"/>
+        <v>5.15</v>
+      </c>
+      <c r="Q46" s="40">
+        <f>(14-'Primer Bimestre'!V46-'Segundo Bimestre'!P46)*(5/2)</f>
+        <v>-0.44368370883589581</v>
+      </c>
+      <c r="R46" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="40">
+        <f>+IF((4+'Primer Bimestre'!V46+P46)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T46" s="77"/>
+      <c r="U46" s="62"/>
+      <c r="V46" s="62"/>
+      <c r="W46" s="62"/>
+      <c r="X46" s="62"/>
+      <c r="Y46" s="62"/>
+      <c r="Z46" s="62"/>
+      <c r="AA46" s="62"/>
+      <c r="AB46" s="62"/>
+      <c r="AC46" s="62"/>
+      <c r="AD46" s="62"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="72" t="s">
         <v>140</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="47">
         <v>7.5</v>
       </c>
-      <c r="F47" s="9">
-        <v>4</v>
-      </c>
-      <c r="G47" s="12">
+      <c r="F47" s="75">
+        <v>3.3</v>
+      </c>
+      <c r="G47" s="49">
         <v>9.5</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="49">
+        <v>9.5</v>
+      </c>
+      <c r="I47" s="50">
+        <v>2</v>
+      </c>
+      <c r="J47" s="20">
+        <v>0</v>
+      </c>
+      <c r="K47" s="24">
+        <v>5</v>
+      </c>
+      <c r="L47" s="26">
+        <v>5</v>
+      </c>
+      <c r="M47" s="37">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="39">
+        <v>2</v>
+      </c>
+      <c r="N47" s="39">
         <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="40"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2.98</v>
+      </c>
+      <c r="O47" s="16"/>
+      <c r="P47" s="79">
+        <f t="shared" si="2"/>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Q47" s="40">
+        <f>(14-'Primer Bimestre'!V47-'Segundo Bimestre'!P47)*(5/2)</f>
+        <v>1.4883061643388196</v>
+      </c>
+      <c r="R47" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="40">
+        <f>+IF((4+'Primer Bimestre'!V47+P47)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T47" s="77"/>
+      <c r="U47" s="62"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="62"/>
+      <c r="AA47" s="62"/>
+      <c r="AB47" s="62"/>
+      <c r="AC47" s="62"/>
+      <c r="AD47" s="62"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -11501,74 +14437,142 @@
       <c r="D48" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="47">
         <v>2.5</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="48">
         <v>6</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="49">
         <v>10</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="49">
+        <v>5</v>
+      </c>
+      <c r="I48" s="50">
+        <v>2</v>
+      </c>
+      <c r="J48" s="20">
+        <v>2</v>
+      </c>
+      <c r="K48" s="24">
+        <v>5</v>
+      </c>
+      <c r="L48" s="26">
+        <v>5</v>
+      </c>
+      <c r="M48" s="37">
         <f t="shared" si="0"/>
-        <v>18.5</v>
-      </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="39">
+        <v>2</v>
+      </c>
+      <c r="N48" s="39">
         <f t="shared" si="1"/>
-        <v>2.4666666666666668</v>
-      </c>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="40"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2.35</v>
+      </c>
+      <c r="O48" s="16"/>
+      <c r="P48" s="79">
+        <f t="shared" si="2"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="Q48" s="40">
+        <f>(14-'Primer Bimestre'!V48-'Segundo Bimestre'!P48)*(5/2)</f>
+        <v>10.098762386281081</v>
+      </c>
+      <c r="R48" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S48" s="40">
+        <f>+IF((4+'Primer Bimestre'!V48+P48)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="77"/>
+      <c r="U48" s="62"/>
+      <c r="V48" s="62"/>
+      <c r="W48" s="62"/>
+      <c r="X48" s="62"/>
+      <c r="Y48" s="62"/>
+      <c r="Z48" s="62"/>
+      <c r="AA48" s="62"/>
+      <c r="AB48" s="62"/>
+      <c r="AC48" s="62"/>
+      <c r="AD48" s="62"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="72" t="s">
         <v>146</v>
       </c>
       <c r="D49" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="47">
         <v>7</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="48">
         <v>7.5</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="49">
         <v>9.5</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="49">
+        <v>10</v>
+      </c>
+      <c r="I49" s="50">
+        <v>2</v>
+      </c>
+      <c r="J49" s="20">
+        <v>2</v>
+      </c>
+      <c r="K49" s="24">
+        <v>5</v>
+      </c>
+      <c r="L49" s="26">
+        <v>5</v>
+      </c>
+      <c r="M49" s="37">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="39">
+        <v>2</v>
+      </c>
+      <c r="N49" s="39">
         <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="40"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3.4</v>
+      </c>
+      <c r="O49" s="16"/>
+      <c r="P49" s="79">
+        <f t="shared" si="2"/>
+        <v>5.4</v>
+      </c>
+      <c r="Q49" s="40">
+        <f>(14-'Primer Bimestre'!V49-'Segundo Bimestre'!P49)*(5/2)</f>
+        <v>0.94317981061951439</v>
+      </c>
+      <c r="R49" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="40">
+        <f>+IF((4+'Primer Bimestre'!V49+P49)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="77"/>
+      <c r="U49" s="62"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="62"/>
+      <c r="Y49" s="62"/>
+      <c r="Z49" s="62"/>
+      <c r="AA49" s="62"/>
+      <c r="AB49" s="62"/>
+      <c r="AC49" s="62"/>
+      <c r="AD49" s="62"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -11581,34 +14585,68 @@
       <c r="D50" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="47">
         <v>2.5</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="48">
         <v>2.5</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="49">
         <v>9.5</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="49">
+        <v>10</v>
+      </c>
+      <c r="I50" s="50">
+        <v>2</v>
+      </c>
+      <c r="J50" s="20">
+        <v>2</v>
+      </c>
+      <c r="K50" s="24">
+        <v>5</v>
+      </c>
+      <c r="L50" s="26">
+        <v>5</v>
+      </c>
+      <c r="M50" s="37">
         <f t="shared" si="0"/>
-        <v>14.5</v>
-      </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="39">
+        <v>2</v>
+      </c>
+      <c r="N50" s="39">
         <f t="shared" si="1"/>
-        <v>1.9333333333333333</v>
-      </c>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="40"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O50" s="16"/>
+      <c r="P50" s="79">
+        <f t="shared" si="2"/>
+        <v>4.45</v>
+      </c>
+      <c r="Q50" s="40">
+        <f>(14-'Primer Bimestre'!V50-'Segundo Bimestre'!P50)*(5/2)</f>
+        <v>8.6597197565760649</v>
+      </c>
+      <c r="R50" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="40">
+        <f>+IF((4+'Primer Bimestre'!V50+P50)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="77"/>
+      <c r="U50" s="62"/>
+      <c r="V50" s="62"/>
+      <c r="W50" s="62"/>
+      <c r="X50" s="62"/>
+      <c r="Y50" s="62"/>
+      <c r="Z50" s="62"/>
+      <c r="AA50" s="62"/>
+      <c r="AB50" s="62"/>
+      <c r="AC50" s="62"/>
+      <c r="AD50" s="62"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -11621,34 +14659,68 @@
       <c r="D51" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="47">
         <v>1</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="48">
         <v>3.5</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="49">
+        <v>6.5</v>
+      </c>
+      <c r="H51" s="49">
+        <v>6.5</v>
+      </c>
+      <c r="I51" s="50">
+        <v>2</v>
+      </c>
+      <c r="J51" s="20">
+        <v>2</v>
+      </c>
+      <c r="K51" s="24">
+        <v>5</v>
+      </c>
+      <c r="L51" s="26">
+        <v>5</v>
+      </c>
+      <c r="M51" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N51" s="39">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="O51" s="16"/>
+      <c r="P51" s="79">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+      <c r="Q51" s="40">
+        <f>(14-'Primer Bimestre'!V51-'Segundo Bimestre'!P51)*(5/2)</f>
+        <v>14.556817970861777</v>
+      </c>
+      <c r="R51" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S51" s="40">
+        <f>+IF((4+'Primer Bimestre'!V51+P51)&lt;9,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="18">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="39">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="40"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T51" s="77"/>
+      <c r="U51" s="62"/>
+      <c r="V51" s="62"/>
+      <c r="W51" s="62"/>
+      <c r="X51" s="62"/>
+      <c r="Y51" s="62"/>
+      <c r="Z51" s="62"/>
+      <c r="AA51" s="62"/>
+      <c r="AB51" s="62"/>
+      <c r="AC51" s="62"/>
+      <c r="AD51" s="62"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -11661,34 +14733,68 @@
       <c r="D52" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="47">
         <v>1</v>
       </c>
-      <c r="F52" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="G52" s="12">
+      <c r="F52" s="75">
+        <v>1.25</v>
+      </c>
+      <c r="G52" s="49">
         <v>7.5</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="I52" s="50">
+        <v>2</v>
+      </c>
+      <c r="J52" s="20">
+        <v>0</v>
+      </c>
+      <c r="K52" s="24">
+        <v>5</v>
+      </c>
+      <c r="L52" s="26">
+        <v>5</v>
+      </c>
+      <c r="M52" s="37">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="39">
+        <v>2</v>
+      </c>
+      <c r="N52" s="39">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="40"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="O52" s="16"/>
+      <c r="P52" s="79">
+        <f t="shared" si="2"/>
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="Q52" s="40">
+        <f>(14-'Primer Bimestre'!V52-'Segundo Bimestre'!P52)*(5/2)</f>
+        <v>16.223421266373279</v>
+      </c>
+      <c r="R52" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S52" s="40">
+        <f>+IF((4+'Primer Bimestre'!V52+P52)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T52" s="77"/>
+      <c r="U52" s="62"/>
+      <c r="V52" s="62"/>
+      <c r="W52" s="62"/>
+      <c r="X52" s="62"/>
+      <c r="Y52" s="62"/>
+      <c r="Z52" s="62"/>
+      <c r="AA52" s="62"/>
+      <c r="AB52" s="62"/>
+      <c r="AC52" s="62"/>
+      <c r="AD52" s="62"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -11701,34 +14807,68 @@
       <c r="D53" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E53" s="32">
-        <v>5</v>
-      </c>
-      <c r="F53" s="9">
+      <c r="E53" s="47">
+        <v>5</v>
+      </c>
+      <c r="F53" s="48">
         <v>3</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="49">
         <v>7.5</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="49">
+        <v>7</v>
+      </c>
+      <c r="I53" s="50">
+        <v>2</v>
+      </c>
+      <c r="J53" s="20">
+        <v>2</v>
+      </c>
+      <c r="K53" s="24">
+        <v>5</v>
+      </c>
+      <c r="L53" s="26">
+        <v>5</v>
+      </c>
+      <c r="M53" s="37">
         <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="39">
+        <v>2</v>
+      </c>
+      <c r="N53" s="39">
         <f t="shared" si="1"/>
-        <v>2.0666666666666669</v>
-      </c>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="40"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2.25</v>
+      </c>
+      <c r="O53" s="16"/>
+      <c r="P53" s="79">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="Q53" s="40">
+        <f>(14-'Primer Bimestre'!V53-'Segundo Bimestre'!P53)*(5/2)</f>
+        <v>6.58380702913822</v>
+      </c>
+      <c r="R53" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="40">
+        <f>+IF((4+'Primer Bimestre'!V53+P53)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T53" s="77"/>
+      <c r="U53" s="62"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="62"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="62"/>
+      <c r="Z53" s="62"/>
+      <c r="AA53" s="62"/>
+      <c r="AB53" s="62"/>
+      <c r="AC53" s="62"/>
+      <c r="AD53" s="62"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -11741,34 +14881,68 @@
       <c r="D54" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="E54" s="32">
-        <v>5</v>
-      </c>
-      <c r="F54" s="9">
+      <c r="E54" s="47">
+        <v>5</v>
+      </c>
+      <c r="F54" s="48">
         <v>1</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="49">
         <v>9.5</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="49">
+        <v>4.5</v>
+      </c>
+      <c r="I54" s="50">
+        <v>2</v>
+      </c>
+      <c r="J54" s="20">
+        <v>2</v>
+      </c>
+      <c r="K54" s="24">
+        <v>5</v>
+      </c>
+      <c r="L54" s="26">
+        <v>5</v>
+      </c>
+      <c r="M54" s="37">
         <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-      <c r="I54" s="20"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="39">
+        <v>2</v>
+      </c>
+      <c r="N54" s="39">
         <f t="shared" si="1"/>
-        <v>2.0666666666666669</v>
-      </c>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="40"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="O54" s="16"/>
+      <c r="P54" s="79">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q54" s="40">
+        <f>(14-'Primer Bimestre'!V54-'Segundo Bimestre'!P54)*(5/2)</f>
+        <v>14.202557029138223</v>
+      </c>
+      <c r="R54" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S54" s="40">
+        <f>+IF((4+'Primer Bimestre'!V54+P54)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T54" s="77"/>
+      <c r="U54" s="62"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="62"/>
+      <c r="X54" s="62"/>
+      <c r="Y54" s="62"/>
+      <c r="Z54" s="62"/>
+      <c r="AA54" s="62"/>
+      <c r="AB54" s="62"/>
+      <c r="AC54" s="62"/>
+      <c r="AD54" s="62"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -11781,34 +14955,68 @@
       <c r="D55" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="E55" s="32">
+      <c r="E55" s="47">
         <v>1</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="48">
         <v>1.5</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="49">
         <v>10</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="49">
+        <v>0</v>
+      </c>
+      <c r="I55" s="50">
+        <v>2</v>
+      </c>
+      <c r="J55" s="20">
+        <v>2</v>
+      </c>
+      <c r="K55" s="24">
+        <v>5</v>
+      </c>
+      <c r="L55" s="26">
+        <v>5</v>
+      </c>
+      <c r="M55" s="37">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="I55" s="20"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="39">
+        <v>2</v>
+      </c>
+      <c r="N55" s="39">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="40"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1.25</v>
+      </c>
+      <c r="O55" s="16"/>
+      <c r="P55" s="79">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="Q55" s="40">
+        <f>(14-'Primer Bimestre'!V55-'Segundo Bimestre'!P55)*(5/2)</f>
+        <v>16.829119529138218</v>
+      </c>
+      <c r="R55" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S55" s="40">
+        <f>+IF((4+'Primer Bimestre'!V55+P55)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T55" s="77"/>
+      <c r="U55" s="62"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="62"/>
+      <c r="Z55" s="62"/>
+      <c r="AA55" s="62"/>
+      <c r="AB55" s="62"/>
+      <c r="AC55" s="62"/>
+      <c r="AD55" s="62"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -11821,50 +15029,77 @@
       <c r="D56" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="47">
         <v>3</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="48">
         <v>6</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="49">
         <v>7.5</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="49">
+        <v>8.5</v>
+      </c>
+      <c r="I56" s="50">
+        <v>2</v>
+      </c>
+      <c r="J56" s="20">
+        <v>2</v>
+      </c>
+      <c r="K56" s="24">
+        <v>5</v>
+      </c>
+      <c r="L56" s="26">
+        <v>5</v>
+      </c>
+      <c r="M56" s="37">
         <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="I56" s="20"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="39">
+        <v>2</v>
+      </c>
+      <c r="N56" s="39">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="41"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E57" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="O56" s="16"/>
+      <c r="P56" s="79">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q56" s="40">
+        <f>(14-'Primer Bimestre'!V56-'Segundo Bimestre'!P56)*(5/2)</f>
+        <v>7.1969071248535599</v>
+      </c>
+      <c r="R56" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="40">
+        <f>+IF((4+'Primer Bimestre'!V56+P56)&lt;9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T56" s="77"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E57" s="51">
         <f>AVERAGE(E2:E56)</f>
-        <v>3.6818181818181817</v>
-      </c>
-      <c r="F57" s="43">
+        <v>3.6527272727272728</v>
+      </c>
+      <c r="F57" s="51">
         <f>AVERAGE(F2:F56)</f>
-        <v>4.4818181818181815</v>
-      </c>
-      <c r="G57" s="43">
+        <v>4.4245454545454548</v>
+      </c>
+      <c r="G57" s="51">
         <f>AVERAGE(G2:G56)</f>
-        <v>7.4363636363636365</v>
-      </c>
-      <c r="H57" s="18">
-        <f t="shared" si="0"/>
-        <v>15.600000000000001</v>
-      </c>
+        <v>7.9454545454545453</v>
+      </c>
+      <c r="H57" s="51">
+        <f>AVERAGE(H2:H56)</f>
+        <v>6.163636363636364</v>
+      </c>
+      <c r="I57"/>
+      <c r="S57" s="84"/>
+      <c r="T57" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/archivo_notas.xlsx
+++ b/archivo_notas.xlsx
@@ -5,18 +5,21 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario4/Dropbox/EPN/Calculo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Diego/Dropbox/EPN/Calculo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38000" windowHeight="26740" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ultima Bimestre" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="5" r:id="rId2"/>
     <sheet name="Primer Bimestre" sheetId="3" r:id="rId3"/>
     <sheet name="Segundo Bimestre" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Segundo Bimestre'!$A$1:$T$57</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="200">
   <si>
     <t>Nro.</t>
   </si>
@@ -614,28 +617,19 @@
     <t>D3</t>
   </si>
   <si>
-    <t>VAL</t>
-  </si>
-  <si>
-    <t>COEF</t>
-  </si>
-  <si>
-    <t>CALF</t>
-  </si>
-  <si>
     <t>Trab. Grupal</t>
   </si>
   <si>
     <t>2 BIMESTRE</t>
   </si>
   <si>
-    <t>ESTIMADO EXAMEN</t>
-  </si>
-  <si>
     <t>SUPLETORIO</t>
   </si>
   <si>
-    <t>PERDIDA</t>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>FUERA</t>
   </si>
 </sst>
 </file>
@@ -878,7 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,7 +1035,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1151,28 +1145,18 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1547,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -5662,7 +5646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N367"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -6804,8 +6788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -10916,10 +10900,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD57"/>
+  <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:H15"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -10928,15 +10912,18 @@
     <col min="3" max="4" width="34.83203125" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="52"/>
     <col min="7" max="7" width="12.33203125" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="52"/>
-    <col min="11" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="52"/>
+    <col min="9" max="9" width="0" style="52" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="7.1640625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="61"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="19" max="20" width="14" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10956,7 +10943,7 @@
         <v>170</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H1" s="45" t="s">
         <v>171</v>
@@ -10982,19 +10969,21 @@
       <c r="O1" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="P1" s="78" t="s">
+      <c r="P1" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="R1" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="S1" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="T1" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="S1" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="T1" s="76"/>
       <c r="U1" s="62"/>
       <c r="V1" s="62"/>
       <c r="W1" s="62"/>
@@ -11004,9 +10993,8 @@
       <c r="AA1" s="62"/>
       <c r="AB1" s="62"/>
       <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -11044,31 +11032,35 @@
         <v>5</v>
       </c>
       <c r="M2" s="37">
-        <f>+SUM(K2:L2)/5</f>
+        <f t="shared" ref="M2:M33" si="0">+SUM(K2:L2)/5</f>
         <v>2</v>
       </c>
       <c r="N2" s="39">
-        <f>4*(SUM(E2:H2)/40)</f>
+        <f t="shared" ref="N2:N33" si="1">4*(SUM(E2:H2)/40)</f>
         <v>2.75</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="79">
-        <f>+M2+N2+O2</f>
-        <v>4.75</v>
+      <c r="O2" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="P2" s="80">
+        <f t="shared" ref="P2:P33" si="2">+M2+N2+0.4*O2</f>
+        <v>7.35</v>
       </c>
       <c r="Q2" s="40">
-        <f>(14-'Primer Bimestre'!V2-'Segundo Bimestre'!P2)*(5/2)</f>
-        <v>5.0204141719953643</v>
-      </c>
-      <c r="R2" s="40">
-        <f>+IF(Q2&gt;=10,1,0)</f>
+        <v>7.5718343312018543</v>
+      </c>
+      <c r="R2" s="75">
+        <f t="shared" ref="R2:R33" si="3">+P2+Q2</f>
+        <v>14.921834331201854</v>
+      </c>
+      <c r="S2" s="62">
+        <f t="shared" ref="S2:S33" si="4">+IF(R2&gt;=14,0,1)</f>
         <v>0</v>
       </c>
-      <c r="S2" s="40">
-        <f>+IF((4+'Primer Bimestre'!V2+P2)&lt;9,1,0)</f>
+      <c r="T2" s="62">
+        <f t="shared" ref="T2:T33" si="5">+IF(R2&lt;9,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T2" s="77"/>
       <c r="U2" s="62"/>
       <c r="V2" s="62"/>
       <c r="W2" s="62"/>
@@ -11078,9 +11070,8 @@
       <c r="AA2" s="62"/>
       <c r="AB2" s="62"/>
       <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -11118,31 +11109,35 @@
         <v>5</v>
       </c>
       <c r="M3" s="37">
-        <f t="shared" ref="M3:M56" si="0">+SUM(K3:L3)/5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N3" s="39">
-        <f t="shared" ref="N3:N56" si="1">4*(SUM(E3:H3)/40)</f>
+        <f t="shared" si="1"/>
         <v>1.85</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="79">
-        <f t="shared" ref="P3:P56" si="2">+M3+N3+O3</f>
-        <v>3.85</v>
+      <c r="O3" s="16">
+        <v>5</v>
+      </c>
+      <c r="P3" s="80">
+        <f t="shared" si="2"/>
+        <v>5.85</v>
       </c>
       <c r="Q3" s="40">
-        <f>(14-'Primer Bimestre'!V3-'Segundo Bimestre'!P3)*(5/2)</f>
-        <v>7.2010293786245363</v>
-      </c>
-      <c r="R3" s="40">
-        <f t="shared" ref="R3:R56" si="3">+IF(Q3&gt;=10,1,0)</f>
+        <v>7.2695882485501855</v>
+      </c>
+      <c r="R3" s="75">
+        <f t="shared" si="3"/>
+        <v>13.119588248550185</v>
+      </c>
+      <c r="S3" s="62">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T3" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S3" s="40">
-        <f>+IF((4+'Primer Bimestre'!V3+P3)&lt;9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="77"/>
       <c r="U3" s="62"/>
       <c r="V3" s="62"/>
       <c r="W3" s="62"/>
@@ -11152,9 +11147,8 @@
       <c r="AA3" s="62"/>
       <c r="AB3" s="62"/>
       <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -11199,24 +11193,28 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="79">
+      <c r="O4" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="P4" s="80">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="Q4" s="40">
-        <f>(14-'Primer Bimestre'!V4-'Segundo Bimestre'!P4)*(5/2)</f>
-        <v>16.306351671995362</v>
-      </c>
-      <c r="R4" s="82">
+        <v>5.5174593312018541</v>
+      </c>
+      <c r="R4" s="75">
         <f t="shared" si="3"/>
+        <v>9.817459331201853</v>
+      </c>
+      <c r="S4" s="62">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S4" s="40">
-        <f>+IF((4+'Primer Bimestre'!V4+P4)&lt;9,1,0)</f>
+      <c r="T4" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T4" s="77"/>
       <c r="U4" s="62"/>
       <c r="V4" s="62"/>
       <c r="W4" s="62"/>
@@ -11226,9 +11224,8 @@
       <c r="AA4" s="62"/>
       <c r="AB4" s="62"/>
       <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -11273,24 +11270,28 @@
         <f t="shared" si="1"/>
         <v>2.15</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="79">
+      <c r="O5" s="16">
+        <v>8</v>
+      </c>
+      <c r="P5" s="80">
         <f t="shared" si="2"/>
-        <v>4.1500000000000004</v>
+        <v>7.3500000000000005</v>
       </c>
       <c r="Q5" s="40">
-        <f>(14-'Primer Bimestre'!V5-'Segundo Bimestre'!P5)*(5/2)</f>
-        <v>7.2715302434239337</v>
-      </c>
-      <c r="R5" s="40">
+        <v>7.2713879026304262</v>
+      </c>
+      <c r="R5" s="75">
         <f t="shared" si="3"/>
+        <v>14.621387902630428</v>
+      </c>
+      <c r="S5" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S5" s="40">
-        <f>+IF((4+'Primer Bimestre'!V5+P5)&lt;9,1,0)</f>
+      <c r="T5" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T5" s="77"/>
       <c r="U5" s="62"/>
       <c r="V5" s="62"/>
       <c r="W5" s="62"/>
@@ -11300,9 +11301,8 @@
       <c r="AA5" s="62"/>
       <c r="AB5" s="62"/>
       <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -11347,24 +11347,28 @@
         <f t="shared" si="1"/>
         <v>3.15</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="79">
+      <c r="O6" s="16">
+        <v>10</v>
+      </c>
+      <c r="P6" s="80">
         <f t="shared" si="2"/>
-        <v>5.15</v>
+        <v>9.15</v>
       </c>
       <c r="Q6" s="40">
-        <f>(14-'Primer Bimestre'!V6-'Segundo Bimestre'!P6)*(5/2)</f>
-        <v>0.82032873362672287</v>
-      </c>
-      <c r="R6" s="40">
+        <v>8.5218685065493105</v>
+      </c>
+      <c r="R6" s="75">
         <f t="shared" si="3"/>
+        <v>17.671868506549309</v>
+      </c>
+      <c r="S6" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S6" s="40">
-        <f>+IF((4+'Primer Bimestre'!V6+P6)&lt;9,1,0)</f>
+      <c r="T6" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T6" s="77"/>
       <c r="U6" s="62"/>
       <c r="V6" s="62"/>
       <c r="W6" s="62"/>
@@ -11374,9 +11378,8 @@
       <c r="AA6" s="62"/>
       <c r="AB6" s="62"/>
       <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -11399,7 +11402,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="50">
         <v>2</v>
@@ -11419,26 +11422,30 @@
       </c>
       <c r="N7" s="39">
         <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="79">
+        <v>3.1</v>
+      </c>
+      <c r="O7" s="16">
+        <v>10</v>
+      </c>
+      <c r="P7" s="80">
         <f t="shared" si="2"/>
-        <v>5.2</v>
+        <v>9.1</v>
       </c>
       <c r="Q7" s="40">
-        <f>(14-'Primer Bimestre'!V7-'Segundo Bimestre'!P7)*(5/2)</f>
-        <v>3.1581722357673936</v>
-      </c>
-      <c r="R7" s="40">
+        <v>7.5367311056930424</v>
+      </c>
+      <c r="R7" s="75">
         <f t="shared" si="3"/>
+        <v>16.636731105693041</v>
+      </c>
+      <c r="S7" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S7" s="40">
-        <f>+IF((4+'Primer Bimestre'!V7+P7)&lt;9,1,0)</f>
+      <c r="T7" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T7" s="77"/>
       <c r="U7" s="62"/>
       <c r="V7" s="62"/>
       <c r="W7" s="62"/>
@@ -11448,9 +11455,8 @@
       <c r="AA7" s="62"/>
       <c r="AB7" s="62"/>
       <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -11495,24 +11501,28 @@
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="79">
+      <c r="O8" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="P8" s="80">
         <f t="shared" si="2"/>
-        <v>4.3</v>
+        <v>7.3</v>
       </c>
       <c r="Q8" s="40">
-        <f>(14-'Primer Bimestre'!V8-'Segundo Bimestre'!P8)*(5/2)</f>
-        <v>6.9730073050552965</v>
-      </c>
-      <c r="R8" s="40">
+        <v>7.5107970779778821</v>
+      </c>
+      <c r="R8" s="75">
         <f t="shared" si="3"/>
+        <v>14.810797077977881</v>
+      </c>
+      <c r="S8" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S8" s="40">
-        <f>+IF((4+'Primer Bimestre'!V8+P8)&lt;9,1,0)</f>
+      <c r="T8" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T8" s="77"/>
       <c r="U8" s="62"/>
       <c r="V8" s="62"/>
       <c r="W8" s="62"/>
@@ -11522,9 +11532,8 @@
       <c r="AA8" s="62"/>
       <c r="AB8" s="62"/>
       <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -11537,7 +11546,7 @@
       <c r="D9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="73">
         <v>2.9</v>
       </c>
       <c r="F9" s="48">
@@ -11569,24 +11578,28 @@
         <f t="shared" si="1"/>
         <v>2.94</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="79">
+      <c r="O9" s="16">
+        <v>10</v>
+      </c>
+      <c r="P9" s="80">
         <f t="shared" si="2"/>
-        <v>4.9399999999999995</v>
+        <v>8.94</v>
       </c>
       <c r="Q9" s="40">
-        <f>(14-'Primer Bimestre'!V9-'Segundo Bimestre'!P9)*(5/2)</f>
-        <v>1.4243465907695807</v>
-      </c>
-      <c r="R9" s="40">
+        <v>8.4902613636921682</v>
+      </c>
+      <c r="R9" s="75">
         <f t="shared" si="3"/>
+        <v>17.430261363692168</v>
+      </c>
+      <c r="S9" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S9" s="40">
-        <f>+IF((4+'Primer Bimestre'!V9+P9)&lt;9,1,0)</f>
+      <c r="T9" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T9" s="77"/>
       <c r="U9" s="62"/>
       <c r="V9" s="62"/>
       <c r="W9" s="62"/>
@@ -11596,9 +11609,8 @@
       <c r="AA9" s="62"/>
       <c r="AB9" s="62"/>
       <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -11643,24 +11655,28 @@
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="79">
+      <c r="O10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="80">
         <f t="shared" si="2"/>
-        <v>2.35</v>
+        <v>2.5500000000000003</v>
       </c>
       <c r="Q10" s="40">
-        <f>(14-'Primer Bimestre'!V10-'Segundo Bimestre'!P10)*(5/2)</f>
-        <v>19.549553571428572</v>
-      </c>
-      <c r="R10" s="82">
+        <v>3.8301785714285712</v>
+      </c>
+      <c r="R10" s="75">
         <f t="shared" si="3"/>
+        <v>6.380178571428571</v>
+      </c>
+      <c r="S10" s="62">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S10" s="40">
-        <f>+IF((4+'Primer Bimestre'!V10+P10)&lt;9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="77"/>
+      <c r="T10" s="62">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="U10" s="62"/>
       <c r="V10" s="62"/>
       <c r="W10" s="62"/>
@@ -11670,9 +11686,8 @@
       <c r="AA10" s="62"/>
       <c r="AB10" s="62"/>
       <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -11717,30 +11732,30 @@
         <f t="shared" si="1"/>
         <v>1.95</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="79">
+      <c r="O11" s="16">
+        <v>1</v>
+      </c>
+      <c r="P11" s="80">
         <f t="shared" si="2"/>
-        <v>3.95</v>
+        <v>4.3500000000000005</v>
       </c>
       <c r="Q11" s="40">
-        <f>(14-'Primer Bimestre'!V11-'Segundo Bimestre'!P11)*(5/2)</f>
-        <v>10.152901785714283</v>
-      </c>
-      <c r="R11" s="82">
+        <v>5.9888392857142865</v>
+      </c>
+      <c r="R11" s="75">
         <f t="shared" si="3"/>
+        <v>10.338839285714286</v>
+      </c>
+      <c r="S11" s="62">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S11" s="40">
-        <f>+IF((4+'Primer Bimestre'!V11+P11)&lt;9,1,0)</f>
+      <c r="T11" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T11" s="83"/>
-      <c r="U11" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="V11" s="73">
-        <v>4</v>
-      </c>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
       <c r="W11" s="62"/>
       <c r="X11" s="62"/>
       <c r="Y11" s="62"/>
@@ -11748,9 +11763,8 @@
       <c r="AA11" s="62"/>
       <c r="AB11" s="62"/>
       <c r="AC11" s="62"/>
-      <c r="AD11" s="62"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -11795,31 +11809,30 @@
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="79">
+      <c r="O12" s="16">
+        <v>1</v>
+      </c>
+      <c r="P12" s="80">
         <f t="shared" si="2"/>
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q12" s="40">
-        <f>(14-'Primer Bimestre'!V12-'Segundo Bimestre'!P12)*(5/2)</f>
-        <v>13.382179880944459</v>
-      </c>
-      <c r="R12" s="82">
+        <v>5.2471280476222155</v>
+      </c>
+      <c r="R12" s="75">
         <f t="shared" si="3"/>
+        <v>9.0471280476222162</v>
+      </c>
+      <c r="S12" s="62">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S12" s="40">
-        <f>+IF((4+'Primer Bimestre'!V12+P12)&lt;9,1,0)</f>
+      <c r="T12" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T12" s="83"/>
-      <c r="U12" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="V12" s="86">
-        <f>10/12</f>
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
       <c r="W12" s="62"/>
       <c r="X12" s="62"/>
       <c r="Y12" s="62"/>
@@ -11827,9 +11840,8 @@
       <c r="AA12" s="62"/>
       <c r="AB12" s="62"/>
       <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -11874,31 +11886,30 @@
         <f t="shared" si="1"/>
         <v>2.95</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="79">
+      <c r="O13" s="16">
+        <v>10</v>
+      </c>
+      <c r="P13" s="80">
         <f t="shared" si="2"/>
-        <v>4.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="Q13" s="40">
-        <f>(14-'Primer Bimestre'!V13-'Segundo Bimestre'!P13)*(5/2)</f>
-        <v>6.1014409577096469</v>
-      </c>
-      <c r="R13" s="40">
+        <v>7.14942361691614</v>
+      </c>
+      <c r="R13" s="75">
         <f t="shared" si="3"/>
+        <v>16.099423616916141</v>
+      </c>
+      <c r="S13" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S13" s="40">
-        <f>+IF((4+'Primer Bimestre'!V13+P13)&lt;9,1,0)</f>
+      <c r="T13" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T13" s="83"/>
-      <c r="U13" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="V13" s="86">
-        <f>+V11*V12</f>
-        <v>3.3333333333333335</v>
-      </c>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
       <c r="W13" s="62"/>
       <c r="X13" s="62"/>
       <c r="Y13" s="62"/>
@@ -11906,9 +11917,8 @@
       <c r="AA13" s="62"/>
       <c r="AB13" s="62"/>
       <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -11953,24 +11963,28 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="79">
+      <c r="O14" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="P14" s="80">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="Q14" s="40">
-        <f>(14-'Primer Bimestre'!V14-'Segundo Bimestre'!P14)*(5/2)</f>
-        <v>12.216932160860727</v>
-      </c>
-      <c r="R14" s="40">
+        <v>5.6132271356557091</v>
+      </c>
+      <c r="R14" s="75">
         <f t="shared" si="3"/>
+        <v>10.91322713565571</v>
+      </c>
+      <c r="S14" s="62">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S14" s="40">
-        <f>+IF((4+'Primer Bimestre'!V14+P14)&lt;9,1,0)</f>
+      <c r="T14" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T14" s="77"/>
       <c r="U14" s="62"/>
       <c r="V14" s="62"/>
       <c r="W14" s="62"/>
@@ -11980,9 +11994,8 @@
       <c r="AA14" s="62"/>
       <c r="AB14" s="62"/>
       <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -12027,24 +12040,28 @@
         <f t="shared" si="1"/>
         <v>2.0499999999999998</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="79">
+      <c r="O15" s="16">
+        <v>6</v>
+      </c>
+      <c r="P15" s="80">
         <f t="shared" si="2"/>
-        <v>4.05</v>
+        <v>6.45</v>
       </c>
       <c r="Q15" s="40">
-        <f>(14-'Primer Bimestre'!V15-'Segundo Bimestre'!P15)*(5/2)</f>
-        <v>4.2362270054498214</v>
-      </c>
-      <c r="R15" s="40">
+        <v>8.2555091978200714</v>
+      </c>
+      <c r="R15" s="75">
         <f t="shared" si="3"/>
+        <v>14.705509197820071</v>
+      </c>
+      <c r="S15" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S15" s="40">
-        <f>+IF((4+'Primer Bimestre'!V15+P15)&lt;9,1,0)</f>
+      <c r="T15" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T15" s="77"/>
       <c r="U15" s="62"/>
       <c r="V15" s="62"/>
       <c r="W15" s="62"/>
@@ -12054,9 +12071,8 @@
       <c r="AA15" s="62"/>
       <c r="AB15" s="62"/>
       <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -12070,7 +12086,7 @@
         <v>48</v>
       </c>
       <c r="E16" s="47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="48">
         <v>5.5</v>
@@ -12099,26 +12115,30 @@
       </c>
       <c r="N16" s="39">
         <f t="shared" si="1"/>
-        <v>3.25</v>
-      </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="79">
+        <v>3.15</v>
+      </c>
+      <c r="O16" s="16">
+        <v>10</v>
+      </c>
+      <c r="P16" s="80">
         <f t="shared" si="2"/>
-        <v>5.25</v>
+        <v>9.15</v>
       </c>
       <c r="Q16" s="40">
-        <f>(14-'Primer Bimestre'!V16-'Segundo Bimestre'!P16)*(5/2)</f>
-        <v>2.7464405708621964</v>
-      </c>
-      <c r="R16" s="40">
+        <v>7.8014237716551218</v>
+      </c>
+      <c r="R16" s="75">
         <f t="shared" si="3"/>
+        <v>16.951423771655122</v>
+      </c>
+      <c r="S16" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S16" s="40">
-        <f>+IF((4+'Primer Bimestre'!V16+P16)&lt;9,1,0)</f>
+      <c r="T16" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T16" s="77"/>
       <c r="U16" s="62"/>
       <c r="V16" s="62"/>
       <c r="W16" s="62"/>
@@ -12128,9 +12148,8 @@
       <c r="AA16" s="62"/>
       <c r="AB16" s="62"/>
       <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -12175,24 +12194,28 @@
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="79">
+      <c r="O17" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="P17" s="80">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>7.8</v>
       </c>
       <c r="Q17" s="40">
-        <f>(14-'Primer Bimestre'!V17-'Segundo Bimestre'!P17)*(5/2)</f>
-        <v>2.6997887851479097</v>
-      </c>
-      <c r="R17" s="40">
+        <v>8.1200844859408363</v>
+      </c>
+      <c r="R17" s="75">
         <f t="shared" si="3"/>
+        <v>15.920084485940837</v>
+      </c>
+      <c r="S17" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S17" s="40">
-        <f>+IF((4+'Primer Bimestre'!V17+P17)&lt;9,1,0)</f>
+      <c r="T17" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T17" s="77"/>
       <c r="U17" s="62"/>
       <c r="V17" s="62"/>
       <c r="W17" s="62"/>
@@ -12202,9 +12225,8 @@
       <c r="AA17" s="62"/>
       <c r="AB17" s="62"/>
       <c r="AC17" s="62"/>
-      <c r="AD17" s="62"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -12249,24 +12271,28 @@
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="79">
+      <c r="O18" s="16">
+        <v>6</v>
+      </c>
+      <c r="P18" s="80">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>6.9</v>
       </c>
       <c r="Q18" s="40">
-        <f>(14-'Primer Bimestre'!V18-'Segundo Bimestre'!P18)*(5/2)</f>
-        <v>3.8118423565764825</v>
-      </c>
-      <c r="R18" s="40">
+        <v>8.2152630573694072</v>
+      </c>
+      <c r="R18" s="75">
         <f t="shared" si="3"/>
+        <v>15.115263057369408</v>
+      </c>
+      <c r="S18" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S18" s="40">
-        <f>+IF((4+'Primer Bimestre'!V18+P18)&lt;9,1,0)</f>
+      <c r="T18" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T18" s="77"/>
       <c r="U18" s="62"/>
       <c r="V18" s="62"/>
       <c r="W18" s="62"/>
@@ -12276,9 +12302,8 @@
       <c r="AA18" s="62"/>
       <c r="AB18" s="62"/>
       <c r="AC18" s="62"/>
-      <c r="AD18" s="62"/>
-    </row>
-    <row r="19" spans="1:30" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="53">
         <v>18</v>
       </c>
@@ -12323,24 +12348,28 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="O19" s="58"/>
-      <c r="P19" s="85">
+      <c r="O19" s="58">
+        <v>0</v>
+      </c>
+      <c r="P19" s="80">
         <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
-      <c r="Q19" s="60">
-        <f>(14-'Primer Bimestre'!V19-'Segundo Bimestre'!P19)*(5/2)</f>
-        <v>18.171996542290351</v>
-      </c>
-      <c r="R19" s="82">
+      <c r="Q19" s="40">
+        <v>3.9312013830838595</v>
+      </c>
+      <c r="R19" s="75">
         <f t="shared" si="3"/>
+        <v>6.7312013830838593</v>
+      </c>
+      <c r="S19" s="62">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S19" s="40">
-        <f>+IF((4+'Primer Bimestre'!V19+P19)&lt;9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="77"/>
+      <c r="T19" s="62">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="U19" s="62"/>
       <c r="V19" s="62"/>
       <c r="W19" s="62"/>
@@ -12350,9 +12379,8 @@
       <c r="AA19" s="62"/>
       <c r="AB19" s="62"/>
       <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -12397,24 +12425,28 @@
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="79">
+      <c r="O20" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="P20" s="80">
         <f t="shared" si="2"/>
-        <v>4.25</v>
+        <v>6.05</v>
       </c>
       <c r="Q20" s="40">
-        <f>(14-'Primer Bimestre'!V20-'Segundo Bimestre'!P20)*(5/2)</f>
-        <v>5.3792530708621955</v>
-      </c>
-      <c r="R20" s="40">
+        <v>7.9582987716551212</v>
+      </c>
+      <c r="R20" s="75">
         <f t="shared" si="3"/>
+        <v>14.00829877165512</v>
+      </c>
+      <c r="S20" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S20" s="40">
-        <f>+IF((4+'Primer Bimestre'!V20+P20)&lt;9,1,0)</f>
+      <c r="T20" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T20" s="77"/>
       <c r="U20" s="62"/>
       <c r="V20" s="62"/>
       <c r="W20" s="62"/>
@@ -12424,9 +12456,8 @@
       <c r="AA20" s="62"/>
       <c r="AB20" s="62"/>
       <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -12442,8 +12473,8 @@
       <c r="E21" s="47">
         <v>3</v>
       </c>
-      <c r="F21" s="75">
-        <v>3.3</v>
+      <c r="F21" s="74">
+        <v>4</v>
       </c>
       <c r="G21" s="49">
         <v>8</v>
@@ -12469,26 +12500,30 @@
       </c>
       <c r="N21" s="39">
         <f t="shared" si="1"/>
-        <v>1.8800000000000001</v>
-      </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="79">
+        <v>1.95</v>
+      </c>
+      <c r="O21" s="16">
+        <v>5</v>
+      </c>
+      <c r="P21" s="80">
         <f t="shared" si="2"/>
-        <v>3.88</v>
+        <v>5.95</v>
       </c>
       <c r="Q21" s="40">
-        <f>(14-'Primer Bimestre'!V21-'Segundo Bimestre'!P21)*(5/2)</f>
-        <v>10.5273315963338</v>
-      </c>
-      <c r="R21" s="82">
+        <v>5.9090673614664802</v>
+      </c>
+      <c r="R21" s="75">
         <f t="shared" si="3"/>
+        <v>11.859067361466479</v>
+      </c>
+      <c r="S21" s="62">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S21" s="40">
-        <f>+IF((4+'Primer Bimestre'!V21+P21)&lt;9,1,0)</f>
+      <c r="T21" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T21" s="77"/>
       <c r="U21" s="62"/>
       <c r="V21" s="62"/>
       <c r="W21" s="62"/>
@@ -12498,9 +12533,8 @@
       <c r="AA21" s="62"/>
       <c r="AB21" s="62"/>
       <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -12545,24 +12579,28 @@
         <f t="shared" si="1"/>
         <v>3.65</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="79">
+      <c r="O22" s="16">
+        <v>10</v>
+      </c>
+      <c r="P22" s="80">
         <f t="shared" si="2"/>
-        <v>5.65</v>
+        <v>9.65</v>
       </c>
       <c r="Q22" s="40">
-        <f>(14-'Primer Bimestre'!V22-'Segundo Bimestre'!P22)*(5/2)</f>
-        <v>5.4340524905227561E-2</v>
-      </c>
-      <c r="R22" s="40">
+        <v>8.6282637900379093</v>
+      </c>
+      <c r="R22" s="75">
         <f t="shared" si="3"/>
+        <v>18.278263790037911</v>
+      </c>
+      <c r="S22" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S22" s="40">
-        <f>+IF((4+'Primer Bimestre'!V22+P22)&lt;9,1,0)</f>
+      <c r="T22" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T22" s="77"/>
       <c r="U22" s="62"/>
       <c r="V22" s="62"/>
       <c r="W22" s="62"/>
@@ -12572,9 +12610,8 @@
       <c r="AA22" s="62"/>
       <c r="AB22" s="62"/>
       <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -12619,24 +12656,28 @@
         <f t="shared" si="1"/>
         <v>2.65</v>
       </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="79">
+      <c r="O23" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="P23" s="80">
         <f t="shared" si="2"/>
-        <v>4.6500000000000004</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="Q23" s="40">
-        <f>(14-'Primer Bimestre'!V23-'Segundo Bimestre'!P23)*(5/2)</f>
-        <v>0.49384945347665798</v>
-      </c>
-      <c r="R23" s="40">
+        <v>9.2424602186093363</v>
+      </c>
+      <c r="R23" s="75">
         <f t="shared" si="3"/>
+        <v>17.292460218609335</v>
+      </c>
+      <c r="S23" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S23" s="40">
-        <f>+IF((4+'Primer Bimestre'!V23+P23)&lt;9,1,0)</f>
+      <c r="T23" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T23" s="77"/>
       <c r="U23" s="62"/>
       <c r="V23" s="62"/>
       <c r="W23" s="62"/>
@@ -12646,9 +12687,8 @@
       <c r="AA23" s="62"/>
       <c r="AB23" s="62"/>
       <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -12693,24 +12733,28 @@
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="79">
+      <c r="O24" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="P24" s="80">
         <f t="shared" si="2"/>
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="Q24" s="40">
-        <f>(14-'Primer Bimestre'!V24-'Segundo Bimestre'!P24)*(5/2)</f>
-        <v>12.23092511371892</v>
-      </c>
-      <c r="R24" s="82">
+        <v>5.4076299545124318</v>
+      </c>
+      <c r="R24" s="75">
         <f t="shared" si="3"/>
+        <v>11.307629954512432</v>
+      </c>
+      <c r="S24" s="62">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S24" s="40">
-        <f>+IF((4+'Primer Bimestre'!V24+P24)&lt;9,1,0)</f>
+      <c r="T24" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T24" s="77"/>
       <c r="U24" s="62"/>
       <c r="V24" s="62"/>
       <c r="W24" s="62"/>
@@ -12720,9 +12764,8 @@
       <c r="AA24" s="62"/>
       <c r="AB24" s="62"/>
       <c r="AC24" s="62"/>
-      <c r="AD24" s="62"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -12767,24 +12810,28 @@
         <f t="shared" si="1"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="O25" s="16"/>
-      <c r="P25" s="79">
+      <c r="O25" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="P25" s="80">
         <f t="shared" si="2"/>
-        <v>4.55</v>
+        <v>7.15</v>
       </c>
       <c r="Q25" s="40">
-        <f>(14-'Primer Bimestre'!V25-'Segundo Bimestre'!P25)*(5/2)</f>
-        <v>10.58236607142857</v>
-      </c>
-      <c r="R25" s="82">
+        <v>5.2170535714285711</v>
+      </c>
+      <c r="R25" s="75">
         <f t="shared" si="3"/>
+        <v>12.367053571428571</v>
+      </c>
+      <c r="S25" s="62">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S25" s="40">
-        <f>+IF((4+'Primer Bimestre'!V25+P25)&lt;9,1,0)</f>
+      <c r="T25" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T25" s="77"/>
       <c r="U25" s="62"/>
       <c r="V25" s="62"/>
       <c r="W25" s="62"/>
@@ -12794,9 +12841,8 @@
       <c r="AA25" s="62"/>
       <c r="AB25" s="62"/>
       <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -12841,24 +12887,28 @@
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
-      <c r="O26" s="16"/>
-      <c r="P26" s="79">
+      <c r="O26" s="16">
+        <v>4</v>
+      </c>
+      <c r="P26" s="80">
         <f t="shared" si="2"/>
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="40">
-        <f>(14-'Primer Bimestre'!V26-'Segundo Bimestre'!P26)*(5/2)</f>
-        <v>12.71186248199642</v>
-      </c>
-      <c r="R26" s="82">
+        <v>5.515255007201433</v>
+      </c>
+      <c r="R26" s="75">
         <f t="shared" si="3"/>
+        <v>10.515255007201432</v>
+      </c>
+      <c r="S26" s="62">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S26" s="40">
-        <f>+IF((4+'Primer Bimestre'!V26+P26)&lt;9,1,0)</f>
+      <c r="T26" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T26" s="77"/>
       <c r="U26" s="62"/>
       <c r="V26" s="62"/>
       <c r="W26" s="62"/>
@@ -12868,9 +12918,8 @@
       <c r="AA26" s="62"/>
       <c r="AB26" s="62"/>
       <c r="AC26" s="62"/>
-      <c r="AD26" s="62"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -12915,24 +12964,28 @@
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
-      <c r="O27" s="16"/>
-      <c r="P27" s="79">
+      <c r="O27" s="16">
+        <v>3</v>
+      </c>
+      <c r="P27" s="80">
         <f t="shared" si="2"/>
-        <v>3.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q27" s="40">
-        <f>(14-'Primer Bimestre'!V27-'Segundo Bimestre'!P27)*(5/2)</f>
-        <v>13.345105519341004</v>
-      </c>
-      <c r="R27" s="82">
+        <v>5.7419577922635963</v>
+      </c>
+      <c r="R27" s="75">
         <f t="shared" si="3"/>
+        <v>10.341957792263596</v>
+      </c>
+      <c r="S27" s="62">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S27" s="40">
-        <f>+IF((4+'Primer Bimestre'!V27+P27)&lt;9,1,0)</f>
+      <c r="T27" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T27" s="77"/>
       <c r="U27" s="62"/>
       <c r="V27" s="62"/>
       <c r="W27" s="62"/>
@@ -12942,9 +12995,8 @@
       <c r="AA27" s="62"/>
       <c r="AB27" s="62"/>
       <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -12961,7 +13013,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="48">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G28" s="49">
         <v>9.5</v>
@@ -12987,26 +13039,30 @@
       </c>
       <c r="N28" s="39">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="79">
+        <v>2.65</v>
+      </c>
+      <c r="O28" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="P28" s="80">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>7.65</v>
       </c>
       <c r="Q28" s="40">
-        <f>(14-'Primer Bimestre'!V28-'Segundo Bimestre'!P28)*(5/2)</f>
-        <v>10.531609735767393</v>
-      </c>
-      <c r="R28" s="82">
+        <v>5.2873561056930427</v>
+      </c>
+      <c r="R28" s="75">
         <f t="shared" si="3"/>
+        <v>12.937356105693043</v>
+      </c>
+      <c r="S28" s="62">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S28" s="40">
-        <f>+IF((4+'Primer Bimestre'!V28+P28)&lt;9,1,0)</f>
+      <c r="T28" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T28" s="77"/>
       <c r="U28" s="62"/>
       <c r="V28" s="62"/>
       <c r="W28" s="62"/>
@@ -13016,9 +13072,8 @@
       <c r="AA28" s="62"/>
       <c r="AB28" s="62"/>
       <c r="AC28" s="62"/>
-      <c r="AD28" s="62"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -13063,24 +13118,28 @@
         <f t="shared" si="1"/>
         <v>2.95</v>
       </c>
-      <c r="O29" s="16"/>
-      <c r="P29" s="79">
+      <c r="O29" s="16">
+        <v>10</v>
+      </c>
+      <c r="P29" s="80">
         <f t="shared" si="2"/>
-        <v>4.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="Q29" s="40">
-        <f>(14-'Primer Bimestre'!V29-'Segundo Bimestre'!P29)*(5/2)</f>
-        <v>6.9642857142857135</v>
-      </c>
-      <c r="R29" s="40">
+        <v>6.2642857142857142</v>
+      </c>
+      <c r="R29" s="75">
         <f t="shared" si="3"/>
+        <v>15.214285714285714</v>
+      </c>
+      <c r="S29" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S29" s="40">
-        <f>+IF((4+'Primer Bimestre'!V29+P29)&lt;9,1,0)</f>
+      <c r="T29" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T29" s="77"/>
       <c r="U29" s="62"/>
       <c r="V29" s="62"/>
       <c r="W29" s="62"/>
@@ -13090,9 +13149,8 @@
       <c r="AA29" s="62"/>
       <c r="AB29" s="62"/>
       <c r="AC29" s="62"/>
-      <c r="AD29" s="62"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -13106,7 +13164,7 @@
         <v>90</v>
       </c>
       <c r="E30" s="47">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F30" s="48">
         <v>4</v>
@@ -13115,7 +13173,7 @@
         <v>9.5</v>
       </c>
       <c r="H30" s="49">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="I30" s="50">
         <v>2</v>
@@ -13135,26 +13193,30 @@
       </c>
       <c r="N30" s="39">
         <f t="shared" si="1"/>
-        <v>1.95</v>
-      </c>
-      <c r="O30" s="16"/>
-      <c r="P30" s="79">
+        <v>2.25</v>
+      </c>
+      <c r="O30" s="16">
+        <v>8</v>
+      </c>
+      <c r="P30" s="80">
         <f t="shared" si="2"/>
-        <v>3.95</v>
+        <v>7.45</v>
       </c>
       <c r="Q30" s="40">
-        <f>(14-'Primer Bimestre'!V30-'Segundo Bimestre'!P30)*(5/2)</f>
-        <v>14.3324039686582</v>
-      </c>
-      <c r="R30" s="82">
+        <v>4.7970384125367191</v>
+      </c>
+      <c r="R30" s="75">
         <f t="shared" si="3"/>
+        <v>12.247038412536719</v>
+      </c>
+      <c r="S30" s="62">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S30" s="40">
-        <f>+IF((4+'Primer Bimestre'!V30+P30)&lt;9,1,0)</f>
+      <c r="T30" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T30" s="77"/>
       <c r="U30" s="62"/>
       <c r="V30" s="62"/>
       <c r="W30" s="62"/>
@@ -13164,9 +13226,8 @@
       <c r="AA30" s="62"/>
       <c r="AB30" s="62"/>
       <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -13211,24 +13272,28 @@
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="79">
+      <c r="O31" s="16">
+        <v>3</v>
+      </c>
+      <c r="P31" s="80">
         <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="Q31" s="40">
-        <f>(14-'Primer Bimestre'!V31-'Segundo Bimestre'!P31)*(5/2)</f>
-        <v>8.0174107142857132</v>
-      </c>
-      <c r="R31" s="40">
+        <v>6.6930357142857142</v>
+      </c>
+      <c r="R31" s="75">
         <f t="shared" si="3"/>
+        <v>12.293035714285715</v>
+      </c>
+      <c r="S31" s="62">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T31" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S31" s="40">
-        <f>+IF((4+'Primer Bimestre'!V31+P31)&lt;9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="77"/>
       <c r="U31" s="62"/>
       <c r="V31" s="62"/>
       <c r="W31" s="62"/>
@@ -13238,9 +13303,8 @@
       <c r="AA31" s="62"/>
       <c r="AB31" s="62"/>
       <c r="AC31" s="62"/>
-      <c r="AD31" s="62"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -13285,24 +13349,28 @@
         <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
-      <c r="O32" s="16"/>
-      <c r="P32" s="79">
+      <c r="O32" s="16">
+        <v>10</v>
+      </c>
+      <c r="P32" s="80">
         <f t="shared" si="2"/>
-        <v>5.25</v>
+        <v>9.25</v>
       </c>
       <c r="Q32" s="40">
-        <f>(14-'Primer Bimestre'!V32-'Segundo Bimestre'!P32)*(5/2)</f>
-        <v>0.93804810056679511</v>
-      </c>
-      <c r="R32" s="40">
+        <v>8.6747807597732827</v>
+      </c>
+      <c r="R32" s="75">
         <f t="shared" si="3"/>
+        <v>17.924780759773284</v>
+      </c>
+      <c r="S32" s="62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S32" s="40">
-        <f>+IF((4+'Primer Bimestre'!V32+P32)&lt;9,1,0)</f>
+      <c r="T32" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T32" s="77"/>
       <c r="U32" s="62"/>
       <c r="V32" s="62"/>
       <c r="W32" s="62"/>
@@ -13312,9 +13380,8 @@
       <c r="AA32" s="62"/>
       <c r="AB32" s="62"/>
       <c r="AC32" s="62"/>
-      <c r="AD32" s="62"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -13359,24 +13426,28 @@
         <f t="shared" si="1"/>
         <v>1.35</v>
       </c>
-      <c r="O33" s="16"/>
-      <c r="P33" s="79">
+      <c r="O33" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="P33" s="80">
         <f t="shared" si="2"/>
-        <v>3.35</v>
+        <v>4.75</v>
       </c>
       <c r="Q33" s="40">
-        <f>(14-'Primer Bimestre'!V33-'Segundo Bimestre'!P33)*(5/2)</f>
-        <v>13.826785714285714</v>
-      </c>
-      <c r="R33" s="82">
+        <v>5.1192857142857147</v>
+      </c>
+      <c r="R33" s="75">
         <f t="shared" si="3"/>
+        <v>9.8692857142857147</v>
+      </c>
+      <c r="S33" s="62">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S33" s="40">
-        <f>+IF((4+'Primer Bimestre'!V33+P33)&lt;9,1,0)</f>
+      <c r="T33" s="62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T33" s="77"/>
       <c r="U33" s="62"/>
       <c r="V33" s="62"/>
       <c r="W33" s="62"/>
@@ -13386,9 +13457,8 @@
       <c r="AA33" s="62"/>
       <c r="AB33" s="62"/>
       <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -13408,7 +13478,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H34" s="49">
         <v>5</v>
@@ -13426,31 +13496,35 @@
         <v>5</v>
       </c>
       <c r="M34" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M34:M65" si="6">+SUM(K34:L34)/5</f>
         <v>2</v>
       </c>
       <c r="N34" s="39">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="O34" s="16"/>
-      <c r="P34" s="79">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
+        <f t="shared" ref="N34:N56" si="7">4*(SUM(E34:H34)/40)</f>
+        <v>1.8</v>
+      </c>
+      <c r="O34" s="16">
+        <v>5</v>
+      </c>
+      <c r="P34" s="80">
+        <f t="shared" ref="P34:P65" si="8">+M34+N34+0.4*O34</f>
+        <v>5.8</v>
       </c>
       <c r="Q34" s="40">
-        <f>(14-'Primer Bimestre'!V34-'Segundo Bimestre'!P34)*(5/2)</f>
-        <v>11.337859735767397</v>
-      </c>
-      <c r="R34" s="82">
-        <f t="shared" si="3"/>
+        <v>5.964856105693042</v>
+      </c>
+      <c r="R34" s="75">
+        <f t="shared" ref="R34:R65" si="9">+P34+Q34</f>
+        <v>11.764856105693042</v>
+      </c>
+      <c r="S34" s="62">
+        <f t="shared" ref="S34:S65" si="10">+IF(R34&gt;=14,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S34" s="40">
-        <f>+IF((4+'Primer Bimestre'!V34+P34)&lt;9,1,0)</f>
+      <c r="T34" s="62">
+        <f t="shared" ref="T34:T56" si="11">+IF(R34&lt;9,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T34" s="77"/>
       <c r="U34" s="62"/>
       <c r="V34" s="62"/>
       <c r="W34" s="62"/>
@@ -13460,9 +13534,8 @@
       <c r="AA34" s="62"/>
       <c r="AB34" s="62"/>
       <c r="AC34" s="62"/>
-      <c r="AD34" s="62"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -13500,31 +13573,35 @@
         <v>5</v>
       </c>
       <c r="M35" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N35" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="O35" s="16"/>
-      <c r="P35" s="79">
-        <f t="shared" si="2"/>
-        <v>4.25</v>
+      <c r="O35" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="P35" s="80">
+        <f t="shared" si="8"/>
+        <v>7.65</v>
       </c>
       <c r="Q35" s="40">
-        <f>(14-'Primer Bimestre'!V35-'Segundo Bimestre'!P35)*(5/2)</f>
-        <v>6.8241392677107022</v>
-      </c>
-      <c r="R35" s="40">
-        <f t="shared" si="3"/>
+        <v>7.3803442929157193</v>
+      </c>
+      <c r="R35" s="75">
+        <f t="shared" si="9"/>
+        <v>15.03034429291572</v>
+      </c>
+      <c r="S35" s="62">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S35" s="40">
-        <f>+IF((4+'Primer Bimestre'!V35+P35)&lt;9,1,0)</f>
+      <c r="T35" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T35" s="77"/>
       <c r="U35" s="62"/>
       <c r="V35" s="62"/>
       <c r="W35" s="62"/>
@@ -13534,9 +13611,8 @@
       <c r="AA35" s="62"/>
       <c r="AB35" s="62"/>
       <c r="AC35" s="62"/>
-      <c r="AD35" s="62"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -13574,31 +13650,35 @@
         <v>5</v>
       </c>
       <c r="M36" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N36" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.55</v>
       </c>
-      <c r="O36" s="16"/>
-      <c r="P36" s="79">
-        <f t="shared" si="2"/>
-        <v>5.55</v>
+      <c r="O36" s="16">
+        <v>10</v>
+      </c>
+      <c r="P36" s="80">
+        <f t="shared" si="8"/>
+        <v>9.5500000000000007</v>
       </c>
       <c r="Q36" s="40">
-        <f>(14-'Primer Bimestre'!V36-'Segundo Bimestre'!P36)*(5/2)</f>
-        <v>-1.0122388884846534</v>
-      </c>
-      <c r="R36" s="40">
-        <f t="shared" si="3"/>
+        <v>8.8548955553938615</v>
+      </c>
+      <c r="R36" s="75">
+        <f t="shared" si="9"/>
+        <v>18.404895555393864</v>
+      </c>
+      <c r="S36" s="62">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S36" s="40">
-        <f>+IF((4+'Primer Bimestre'!V36+P36)&lt;9,1,0)</f>
+      <c r="T36" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T36" s="77"/>
       <c r="U36" s="62"/>
       <c r="V36" s="62"/>
       <c r="W36" s="62"/>
@@ -13608,9 +13688,8 @@
       <c r="AA36" s="62"/>
       <c r="AB36" s="62"/>
       <c r="AC36" s="62"/>
-      <c r="AD36" s="62"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -13648,31 +13727,35 @@
         <v>5</v>
       </c>
       <c r="M37" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N37" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.2</v>
       </c>
-      <c r="O37" s="16"/>
-      <c r="P37" s="79">
-        <f t="shared" si="2"/>
-        <v>5.2</v>
+      <c r="O37" s="16">
+        <v>10</v>
+      </c>
+      <c r="P37" s="80">
+        <f t="shared" si="8"/>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Q37" s="40">
-        <f>(14-'Primer Bimestre'!V37-'Segundo Bimestre'!P37)*(5/2)</f>
-        <v>2.2698780708621968</v>
-      </c>
-      <c r="R37" s="40">
-        <f t="shared" si="3"/>
+        <v>8.1620487716551224</v>
+      </c>
+      <c r="R37" s="75">
+        <f t="shared" si="9"/>
+        <v>17.362048771655122</v>
+      </c>
+      <c r="S37" s="62">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S37" s="40">
-        <f>+IF((4+'Primer Bimestre'!V37+P37)&lt;9,1,0)</f>
+      <c r="T37" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T37" s="77"/>
       <c r="U37" s="62"/>
       <c r="V37" s="62"/>
       <c r="W37" s="62"/>
@@ -13682,9 +13765,8 @@
       <c r="AA37" s="62"/>
       <c r="AB37" s="62"/>
       <c r="AC37" s="62"/>
-      <c r="AD37" s="62"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -13722,31 +13804,35 @@
         <v>5</v>
       </c>
       <c r="M38" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N38" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.15</v>
       </c>
-      <c r="O38" s="16"/>
-      <c r="P38" s="79">
-        <f t="shared" si="2"/>
-        <v>5.15</v>
+      <c r="O38" s="16">
+        <v>10</v>
+      </c>
+      <c r="P38" s="80">
+        <f t="shared" si="8"/>
+        <v>9.15</v>
       </c>
       <c r="Q38" s="40">
-        <f>(14-'Primer Bimestre'!V38-'Segundo Bimestre'!P38)*(5/2)</f>
-        <v>1.4073823050552958</v>
-      </c>
-      <c r="R38" s="40">
-        <f t="shared" si="3"/>
+        <v>8.4070470779778823</v>
+      </c>
+      <c r="R38" s="75">
+        <f t="shared" si="9"/>
+        <v>17.557047077977884</v>
+      </c>
+      <c r="S38" s="62">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S38" s="40">
-        <f>+IF((4+'Primer Bimestre'!V38+P38)&lt;9,1,0)</f>
+      <c r="T38" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T38" s="77"/>
       <c r="U38" s="62"/>
       <c r="V38" s="62"/>
       <c r="W38" s="62"/>
@@ -13756,9 +13842,8 @@
       <c r="AA38" s="62"/>
       <c r="AB38" s="62"/>
       <c r="AC38" s="62"/>
-      <c r="AD38" s="62"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -13778,7 +13863,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="49">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="H39" s="49">
         <v>3</v>
@@ -13796,31 +13881,35 @@
         <v>5</v>
       </c>
       <c r="M39" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N39" s="39">
-        <f t="shared" si="1"/>
-        <v>1.55</v>
-      </c>
-      <c r="O39" s="16"/>
-      <c r="P39" s="79">
-        <f t="shared" si="2"/>
-        <v>3.55</v>
+        <f t="shared" si="7"/>
+        <v>1.65</v>
+      </c>
+      <c r="O39" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="P39" s="80">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
       </c>
       <c r="Q39" s="40">
-        <f>(14-'Primer Bimestre'!V39-'Segundo Bimestre'!P39)*(5/2)</f>
-        <v>6.3694859340212489</v>
-      </c>
-      <c r="R39" s="40">
-        <f t="shared" si="3"/>
+        <v>8.2022056263915015</v>
+      </c>
+      <c r="R39" s="75">
+        <f t="shared" si="9"/>
+        <v>12.452205626391502</v>
+      </c>
+      <c r="S39" s="62">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T39" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S39" s="40">
-        <f>+IF((4+'Primer Bimestre'!V39+P39)&lt;9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T39" s="77"/>
       <c r="U39" s="62"/>
       <c r="V39" s="62"/>
       <c r="W39" s="62"/>
@@ -13830,9 +13919,8 @@
       <c r="AA39" s="62"/>
       <c r="AB39" s="62"/>
       <c r="AC39" s="62"/>
-      <c r="AD39" s="62"/>
-    </row>
-    <row r="40" spans="1:30" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="53">
         <v>39</v>
       </c>
@@ -13870,31 +13958,35 @@
         <v>0</v>
       </c>
       <c r="M40" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N40" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O40" s="58"/>
-      <c r="P40" s="85">
-        <f t="shared" si="2"/>
+      <c r="O40" s="58">
         <v>0</v>
       </c>
-      <c r="Q40" s="60">
-        <f>(14-'Primer Bimestre'!V40-'Segundo Bimestre'!P40)*(5/2)</f>
-        <v>21.674640264232607</v>
-      </c>
-      <c r="R40" s="82">
-        <f t="shared" si="3"/>
+      <c r="P40" s="80">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="40">
+        <v>5.3301438943069579</v>
+      </c>
+      <c r="R40" s="75">
+        <f t="shared" si="9"/>
+        <v>5.3301438943069579</v>
+      </c>
+      <c r="S40" s="62">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="S40" s="40">
-        <f>+IF((4+'Primer Bimestre'!V40+P40)&lt;9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T40" s="77"/>
+      <c r="T40" s="62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="U40" s="62"/>
       <c r="V40" s="62"/>
       <c r="W40" s="62"/>
@@ -13904,9 +13996,8 @@
       <c r="AA40" s="62"/>
       <c r="AB40" s="62"/>
       <c r="AC40" s="62"/>
-      <c r="AD40" s="62"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -13944,31 +14035,35 @@
         <v>5</v>
       </c>
       <c r="M41" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N41" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="O41" s="16"/>
-      <c r="P41" s="79">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
+      <c r="O41" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="P41" s="80">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
       </c>
       <c r="Q41" s="40">
-        <f>(14-'Primer Bimestre'!V41-'Segundo Bimestre'!P41)*(5/2)</f>
-        <v>4.8091888095158897</v>
-      </c>
-      <c r="R41" s="40">
-        <f t="shared" si="3"/>
+        <v>7.5763244761936441</v>
+      </c>
+      <c r="R41" s="75">
+        <f t="shared" si="9"/>
+        <v>15.076324476193644</v>
+      </c>
+      <c r="S41" s="62">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S41" s="40">
-        <f>+IF((4+'Primer Bimestre'!V41+P41)&lt;9,1,0)</f>
+      <c r="T41" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T41" s="77"/>
       <c r="U41" s="62"/>
       <c r="V41" s="62"/>
       <c r="W41" s="62"/>
@@ -13978,9 +14073,8 @@
       <c r="AA41" s="62"/>
       <c r="AB41" s="62"/>
       <c r="AC41" s="62"/>
-      <c r="AD41" s="62"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -14018,31 +14112,35 @@
         <v>5</v>
       </c>
       <c r="M42" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N42" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.85</v>
       </c>
-      <c r="O42" s="16"/>
-      <c r="P42" s="79">
-        <f t="shared" si="2"/>
-        <v>3.85</v>
+      <c r="O42" s="16">
+        <v>9.5</v>
+      </c>
+      <c r="P42" s="80">
+        <f t="shared" si="8"/>
+        <v>7.65</v>
       </c>
       <c r="Q42" s="40">
-        <f>(14-'Primer Bimestre'!V42-'Segundo Bimestre'!P42)*(5/2)</f>
-        <v>8.7705519479124376</v>
-      </c>
-      <c r="R42" s="40">
-        <f t="shared" si="3"/>
+        <v>7.0617792208350245</v>
+      </c>
+      <c r="R42" s="75">
+        <f t="shared" si="9"/>
+        <v>14.711779220835025</v>
+      </c>
+      <c r="S42" s="62">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S42" s="40">
-        <f>+IF((4+'Primer Bimestre'!V42+P42)&lt;9,1,0)</f>
+      <c r="T42" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T42" s="77"/>
       <c r="U42" s="62"/>
       <c r="V42" s="62"/>
       <c r="W42" s="62"/>
@@ -14052,9 +14150,8 @@
       <c r="AA42" s="62"/>
       <c r="AB42" s="62"/>
       <c r="AC42" s="62"/>
-      <c r="AD42" s="62"/>
-    </row>
-    <row r="43" spans="1:30" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="53">
         <v>42</v>
       </c>
@@ -14092,31 +14189,35 @@
         <v>0</v>
       </c>
       <c r="M43" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N43" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
-      <c r="O43" s="58"/>
-      <c r="P43" s="85">
-        <f t="shared" si="2"/>
+      <c r="O43" s="58">
+        <v>0</v>
+      </c>
+      <c r="P43" s="80">
+        <f t="shared" si="8"/>
         <v>1.05</v>
       </c>
-      <c r="Q43" s="60">
-        <f>(14-'Primer Bimestre'!V43-'Segundo Bimestre'!P43)*(5/2)</f>
-        <v>18.90026023808732</v>
-      </c>
-      <c r="R43" s="82">
-        <f t="shared" si="3"/>
+      <c r="Q43" s="40">
+        <v>5.3898959047650719</v>
+      </c>
+      <c r="R43" s="75">
+        <f t="shared" si="9"/>
+        <v>6.4398959047650717</v>
+      </c>
+      <c r="S43" s="62">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="S43" s="40">
-        <f>+IF((4+'Primer Bimestre'!V43+P43)&lt;9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T43" s="77"/>
+      <c r="T43" s="62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="U43" s="62"/>
       <c r="V43" s="62"/>
       <c r="W43" s="62"/>
@@ -14126,9 +14227,8 @@
       <c r="AA43" s="62"/>
       <c r="AB43" s="62"/>
       <c r="AC43" s="62"/>
-      <c r="AD43" s="62"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -14142,13 +14242,13 @@
         <v>132</v>
       </c>
       <c r="E44" s="47">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F44" s="48">
         <v>7.5</v>
       </c>
       <c r="G44" s="49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H44" s="49">
         <v>8</v>
@@ -14166,31 +14266,35 @@
         <v>5</v>
       </c>
       <c r="M44" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N44" s="39">
-        <f t="shared" si="1"/>
-        <v>2.75</v>
-      </c>
-      <c r="O44" s="16"/>
-      <c r="P44" s="79">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
+        <f t="shared" si="7"/>
+        <v>3.15</v>
+      </c>
+      <c r="O44" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="P44" s="80">
+        <f t="shared" si="8"/>
+        <v>7.75</v>
       </c>
       <c r="Q44" s="40">
-        <f>(14-'Primer Bimestre'!V44-'Segundo Bimestre'!P44)*(5/2)</f>
-        <v>7.376339285714284</v>
-      </c>
-      <c r="R44" s="40">
-        <f t="shared" si="3"/>
+        <v>6.2994642857142864</v>
+      </c>
+      <c r="R44" s="75">
+        <f t="shared" si="9"/>
+        <v>14.049464285714286</v>
+      </c>
+      <c r="S44" s="62">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S44" s="40">
-        <f>+IF((4+'Primer Bimestre'!V44+P44)&lt;9,1,0)</f>
+      <c r="T44" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T44" s="77"/>
       <c r="U44" s="62"/>
       <c r="V44" s="62"/>
       <c r="W44" s="62"/>
@@ -14200,9 +14304,8 @@
       <c r="AA44" s="62"/>
       <c r="AB44" s="62"/>
       <c r="AC44" s="62"/>
-      <c r="AD44" s="62"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -14240,31 +14343,35 @@
         <v>5</v>
       </c>
       <c r="M45" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N45" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.1</v>
       </c>
-      <c r="O45" s="16"/>
-      <c r="P45" s="79">
-        <f t="shared" si="2"/>
-        <v>5.0999999999999996</v>
+      <c r="O45" s="16">
+        <v>10</v>
+      </c>
+      <c r="P45" s="80">
+        <f t="shared" si="8"/>
+        <v>9.1</v>
       </c>
       <c r="Q45" s="40">
-        <f>(14-'Primer Bimestre'!V45-'Segundo Bimestre'!P45)*(5/2)</f>
-        <v>4.1916393994332086</v>
-      </c>
-      <c r="R45" s="40">
-        <f t="shared" si="3"/>
+        <v>7.7033442402267163</v>
+      </c>
+      <c r="R45" s="75">
+        <f t="shared" si="9"/>
+        <v>16.803344240226714</v>
+      </c>
+      <c r="S45" s="62">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S45" s="40">
-        <f>+IF((4+'Primer Bimestre'!V45+P45)&lt;9,1,0)</f>
+      <c r="T45" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T45" s="77"/>
       <c r="U45" s="62"/>
       <c r="V45" s="62"/>
       <c r="W45" s="62"/>
@@ -14274,9 +14381,8 @@
       <c r="AA45" s="62"/>
       <c r="AB45" s="62"/>
       <c r="AC45" s="62"/>
-      <c r="AD45" s="62"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -14289,7 +14395,7 @@
       <c r="D46" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="74">
+      <c r="E46" s="73">
         <v>3.5</v>
       </c>
       <c r="F46" s="48">
@@ -14314,31 +14420,35 @@
         <v>5</v>
       </c>
       <c r="M46" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N46" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.15</v>
       </c>
-      <c r="O46" s="16"/>
-      <c r="P46" s="79">
-        <f t="shared" si="2"/>
-        <v>5.15</v>
+      <c r="O46" s="16">
+        <v>10</v>
+      </c>
+      <c r="P46" s="80">
+        <f t="shared" si="8"/>
+        <v>9.15</v>
       </c>
       <c r="Q46" s="40">
-        <f>(14-'Primer Bimestre'!V46-'Segundo Bimestre'!P46)*(5/2)</f>
-        <v>-0.44368370883589581</v>
-      </c>
-      <c r="R46" s="40">
-        <f t="shared" si="3"/>
+        <v>9.027473483534358</v>
+      </c>
+      <c r="R46" s="75">
+        <f t="shared" si="9"/>
+        <v>18.177473483534357</v>
+      </c>
+      <c r="S46" s="62">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S46" s="40">
-        <f>+IF((4+'Primer Bimestre'!V46+P46)&lt;9,1,0)</f>
+      <c r="T46" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T46" s="77"/>
       <c r="U46" s="62"/>
       <c r="V46" s="62"/>
       <c r="W46" s="62"/>
@@ -14348,9 +14458,8 @@
       <c r="AA46" s="62"/>
       <c r="AB46" s="62"/>
       <c r="AC46" s="62"/>
-      <c r="AD46" s="62"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -14366,7 +14475,7 @@
       <c r="E47" s="47">
         <v>7.5</v>
       </c>
-      <c r="F47" s="75">
+      <c r="F47" s="74">
         <v>3.3</v>
       </c>
       <c r="G47" s="49">
@@ -14388,31 +14497,35 @@
         <v>5</v>
       </c>
       <c r="M47" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N47" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.98</v>
       </c>
-      <c r="O47" s="16"/>
-      <c r="P47" s="79">
-        <f t="shared" si="2"/>
-        <v>4.9800000000000004</v>
+      <c r="O47" s="16">
+        <v>10</v>
+      </c>
+      <c r="P47" s="80">
+        <f t="shared" si="8"/>
+        <v>8.98</v>
       </c>
       <c r="Q47" s="40">
-        <f>(14-'Primer Bimestre'!V47-'Segundo Bimestre'!P47)*(5/2)</f>
-        <v>1.4883061643388196</v>
-      </c>
-      <c r="R47" s="40">
-        <f t="shared" si="3"/>
+        <v>8.4246775342644717</v>
+      </c>
+      <c r="R47" s="75">
+        <f t="shared" si="9"/>
+        <v>17.404677534264472</v>
+      </c>
+      <c r="S47" s="62">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S47" s="40">
-        <f>+IF((4+'Primer Bimestre'!V47+P47)&lt;9,1,0)</f>
+      <c r="T47" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T47" s="77"/>
       <c r="U47" s="62"/>
       <c r="V47" s="62"/>
       <c r="W47" s="62"/>
@@ -14422,9 +14535,8 @@
       <c r="AA47" s="62"/>
       <c r="AB47" s="62"/>
       <c r="AC47" s="62"/>
-      <c r="AD47" s="62"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -14462,31 +14574,35 @@
         <v>5</v>
       </c>
       <c r="M48" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N48" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.35</v>
       </c>
-      <c r="O48" s="16"/>
-      <c r="P48" s="79">
-        <f t="shared" si="2"/>
-        <v>4.3499999999999996</v>
+      <c r="O48" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="P48" s="80">
+        <f t="shared" si="8"/>
+        <v>6.55</v>
       </c>
       <c r="Q48" s="40">
-        <f>(14-'Primer Bimestre'!V48-'Segundo Bimestre'!P48)*(5/2)</f>
-        <v>10.098762386281081</v>
-      </c>
-      <c r="R48" s="82">
-        <f t="shared" si="3"/>
+        <v>6.0304950454875694</v>
+      </c>
+      <c r="R48" s="75">
+        <f t="shared" si="9"/>
+        <v>12.58049504548757</v>
+      </c>
+      <c r="S48" s="62">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="S48" s="40">
-        <f>+IF((4+'Primer Bimestre'!V48+P48)&lt;9,1,0)</f>
+      <c r="T48" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T48" s="77"/>
       <c r="U48" s="62"/>
       <c r="V48" s="62"/>
       <c r="W48" s="62"/>
@@ -14496,9 +14612,8 @@
       <c r="AA48" s="62"/>
       <c r="AB48" s="62"/>
       <c r="AC48" s="62"/>
-      <c r="AD48" s="62"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -14536,31 +14651,35 @@
         <v>5</v>
       </c>
       <c r="M49" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N49" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.4</v>
       </c>
-      <c r="O49" s="16"/>
-      <c r="P49" s="79">
-        <f t="shared" si="2"/>
-        <v>5.4</v>
+      <c r="O49" s="16">
+        <v>10</v>
+      </c>
+      <c r="P49" s="80">
+        <f t="shared" si="8"/>
+        <v>9.4</v>
       </c>
       <c r="Q49" s="40">
-        <f>(14-'Primer Bimestre'!V49-'Segundo Bimestre'!P49)*(5/2)</f>
-        <v>0.94317981061951439</v>
-      </c>
-      <c r="R49" s="40">
-        <f t="shared" si="3"/>
+        <v>8.6727280757521932</v>
+      </c>
+      <c r="R49" s="75">
+        <f t="shared" si="9"/>
+        <v>18.072728075752195</v>
+      </c>
+      <c r="S49" s="62">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S49" s="40">
-        <f>+IF((4+'Primer Bimestre'!V49+P49)&lt;9,1,0)</f>
+      <c r="T49" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T49" s="77"/>
       <c r="U49" s="62"/>
       <c r="V49" s="62"/>
       <c r="W49" s="62"/>
@@ -14570,9 +14689,8 @@
       <c r="AA49" s="62"/>
       <c r="AB49" s="62"/>
       <c r="AC49" s="62"/>
-      <c r="AD49" s="62"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -14586,10 +14704,10 @@
         <v>150</v>
       </c>
       <c r="E50" s="47">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F50" s="48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G50" s="49">
         <v>9.5</v>
@@ -14610,31 +14728,35 @@
         <v>5</v>
       </c>
       <c r="M50" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N50" s="39">
-        <f t="shared" si="1"/>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="O50" s="16"/>
-      <c r="P50" s="79">
-        <f t="shared" si="2"/>
-        <v>4.45</v>
+        <f t="shared" si="7"/>
+        <v>2.75</v>
+      </c>
+      <c r="O50" s="16">
+        <v>7</v>
+      </c>
+      <c r="P50" s="80">
+        <f t="shared" si="8"/>
+        <v>7.5500000000000007</v>
       </c>
       <c r="Q50" s="40">
-        <f>(14-'Primer Bimestre'!V50-'Segundo Bimestre'!P50)*(5/2)</f>
-        <v>8.6597197565760649</v>
-      </c>
-      <c r="R50" s="40">
-        <f t="shared" si="3"/>
+        <v>6.446112097369574</v>
+      </c>
+      <c r="R50" s="75">
+        <f t="shared" si="9"/>
+        <v>13.996112097369576</v>
+      </c>
+      <c r="S50" s="62">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T50" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S50" s="40">
-        <f>+IF((4+'Primer Bimestre'!V50+P50)&lt;9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T50" s="77"/>
       <c r="U50" s="62"/>
       <c r="V50" s="62"/>
       <c r="W50" s="62"/>
@@ -14644,9 +14766,8 @@
       <c r="AA50" s="62"/>
       <c r="AB50" s="62"/>
       <c r="AC50" s="62"/>
-      <c r="AD50" s="62"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -14660,13 +14781,13 @@
         <v>153</v>
       </c>
       <c r="E51" s="47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" s="48">
         <v>3.5</v>
       </c>
       <c r="G51" s="49">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="H51" s="49">
         <v>6.5</v>
@@ -14684,31 +14805,35 @@
         <v>5</v>
       </c>
       <c r="M51" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N51" s="39">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="O51" s="16"/>
-      <c r="P51" s="79">
-        <f t="shared" si="2"/>
-        <v>3.75</v>
+        <f t="shared" si="7"/>
+        <v>2.15</v>
+      </c>
+      <c r="O51" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="P51" s="80">
+        <f t="shared" si="8"/>
+        <v>5.95</v>
       </c>
       <c r="Q51" s="40">
-        <f>(14-'Primer Bimestre'!V51-'Segundo Bimestre'!P51)*(5/2)</f>
-        <v>14.556817970861777</v>
-      </c>
-      <c r="R51" s="82">
-        <f t="shared" si="3"/>
+        <v>4.4272728116552882</v>
+      </c>
+      <c r="R51" s="75">
+        <f t="shared" si="9"/>
+        <v>10.377272811655288</v>
+      </c>
+      <c r="S51" s="62">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="S51" s="40">
-        <f>+IF((4+'Primer Bimestre'!V51+P51)&lt;9,1,0)</f>
+      <c r="T51" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T51" s="77"/>
       <c r="U51" s="62"/>
       <c r="V51" s="62"/>
       <c r="W51" s="62"/>
@@ -14718,9 +14843,8 @@
       <c r="AA51" s="62"/>
       <c r="AB51" s="62"/>
       <c r="AC51" s="62"/>
-      <c r="AD51" s="62"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -14736,7 +14860,7 @@
       <c r="E52" s="47">
         <v>1</v>
       </c>
-      <c r="F52" s="75">
+      <c r="F52" s="74">
         <v>1.25</v>
       </c>
       <c r="G52" s="49">
@@ -14758,31 +14882,35 @@
         <v>5</v>
       </c>
       <c r="M52" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N52" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.2250000000000001</v>
       </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="79">
-        <f t="shared" si="2"/>
+      <c r="O52" s="16">
+        <v>0</v>
+      </c>
+      <c r="P52" s="80">
+        <f t="shared" si="8"/>
         <v>3.2250000000000001</v>
       </c>
       <c r="Q52" s="40">
-        <f>(14-'Primer Bimestre'!V52-'Segundo Bimestre'!P52)*(5/2)</f>
-        <v>16.223421266373279</v>
-      </c>
-      <c r="R52" s="82">
-        <f t="shared" si="3"/>
+        <v>4.2856314934506887</v>
+      </c>
+      <c r="R52" s="75">
+        <f t="shared" si="9"/>
+        <v>7.5106314934506884</v>
+      </c>
+      <c r="S52" s="62">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="S52" s="40">
-        <f>+IF((4+'Primer Bimestre'!V52+P52)&lt;9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T52" s="77"/>
+      <c r="T52" s="62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="U52" s="62"/>
       <c r="V52" s="62"/>
       <c r="W52" s="62"/>
@@ -14792,9 +14920,8 @@
       <c r="AA52" s="62"/>
       <c r="AB52" s="62"/>
       <c r="AC52" s="62"/>
-      <c r="AD52" s="62"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -14808,13 +14935,13 @@
         <v>159</v>
       </c>
       <c r="E53" s="47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F53" s="48">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G53" s="49">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="H53" s="49">
         <v>7</v>
@@ -14832,31 +14959,35 @@
         <v>5</v>
       </c>
       <c r="M53" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N53" s="39">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-      <c r="O53" s="16"/>
-      <c r="P53" s="79">
-        <f t="shared" si="2"/>
-        <v>4.25</v>
+        <f t="shared" si="7"/>
+        <v>2.65</v>
+      </c>
+      <c r="O53" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="P53" s="80">
+        <f t="shared" si="8"/>
+        <v>6.8500000000000005</v>
       </c>
       <c r="Q53" s="40">
-        <f>(14-'Primer Bimestre'!V53-'Segundo Bimestre'!P53)*(5/2)</f>
-        <v>6.58380702913822</v>
-      </c>
-      <c r="R53" s="40">
-        <f t="shared" si="3"/>
+        <v>7.116477188344712</v>
+      </c>
+      <c r="R53" s="75">
+        <f t="shared" si="9"/>
+        <v>13.966477188344712</v>
+      </c>
+      <c r="S53" s="62">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T53" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S53" s="40">
-        <f>+IF((4+'Primer Bimestre'!V53+P53)&lt;9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T53" s="77"/>
       <c r="U53" s="62"/>
       <c r="V53" s="62"/>
       <c r="W53" s="62"/>
@@ -14866,9 +14997,8 @@
       <c r="AA53" s="62"/>
       <c r="AB53" s="62"/>
       <c r="AC53" s="62"/>
-      <c r="AD53" s="62"/>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -14885,13 +15015,13 @@
         <v>5</v>
       </c>
       <c r="F54" s="48">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G54" s="49">
         <v>9.5</v>
       </c>
       <c r="H54" s="49">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I54" s="50">
         <v>2</v>
@@ -14906,31 +15036,35 @@
         <v>5</v>
       </c>
       <c r="M54" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N54" s="39">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O54" s="16"/>
-      <c r="P54" s="79">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O54" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="P54" s="80">
+        <f t="shared" si="8"/>
+        <v>4.8000000000000007</v>
       </c>
       <c r="Q54" s="40">
-        <f>(14-'Primer Bimestre'!V54-'Segundo Bimestre'!P54)*(5/2)</f>
-        <v>14.202557029138223</v>
-      </c>
-      <c r="R54" s="82">
-        <f t="shared" si="3"/>
+        <v>4.3189771883447117</v>
+      </c>
+      <c r="R54" s="75">
+        <f t="shared" si="9"/>
+        <v>9.1189771883447115</v>
+      </c>
+      <c r="S54" s="62">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="S54" s="40">
-        <f>+IF((4+'Primer Bimestre'!V54+P54)&lt;9,1,0)</f>
+      <c r="T54" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T54" s="77"/>
       <c r="U54" s="62"/>
       <c r="V54" s="62"/>
       <c r="W54" s="62"/>
@@ -14940,9 +15074,8 @@
       <c r="AA54" s="62"/>
       <c r="AB54" s="62"/>
       <c r="AC54" s="62"/>
-      <c r="AD54" s="62"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -14980,31 +15113,35 @@
         <v>5</v>
       </c>
       <c r="M55" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N55" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
-      <c r="O55" s="16"/>
-      <c r="P55" s="79">
-        <f t="shared" si="2"/>
-        <v>3.25</v>
+      <c r="O55" s="16">
+        <v>2</v>
+      </c>
+      <c r="P55" s="80">
+        <f t="shared" si="8"/>
+        <v>4.05</v>
       </c>
       <c r="Q55" s="40">
-        <f>(14-'Primer Bimestre'!V55-'Segundo Bimestre'!P55)*(5/2)</f>
-        <v>16.829119529138218</v>
-      </c>
-      <c r="R55" s="82">
-        <f t="shared" si="3"/>
+        <v>4.0183521883447124</v>
+      </c>
+      <c r="R55" s="75">
+        <f t="shared" si="9"/>
+        <v>8.0683521883447114</v>
+      </c>
+      <c r="S55" s="62">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="S55" s="40">
-        <f>+IF((4+'Primer Bimestre'!V55+P55)&lt;9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T55" s="77"/>
+      <c r="T55" s="62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="U55" s="62"/>
       <c r="V55" s="62"/>
       <c r="W55" s="62"/>
@@ -15014,9 +15151,8 @@
       <c r="AA55" s="62"/>
       <c r="AB55" s="62"/>
       <c r="AC55" s="62"/>
-      <c r="AD55" s="62"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -15054,54 +15190,63 @@
         <v>5</v>
       </c>
       <c r="M56" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N56" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="O56" s="16"/>
-      <c r="P56" s="79">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="Q56" s="40">
-        <f>(14-'Primer Bimestre'!V56-'Segundo Bimestre'!P56)*(5/2)</f>
-        <v>7.1969071248535599</v>
-      </c>
-      <c r="R56" s="40">
-        <f t="shared" si="3"/>
+      <c r="O56" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="P56" s="80">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="Q56" s="41">
+        <v>6.621237150058576</v>
+      </c>
+      <c r="R56" s="75">
+        <f t="shared" si="9"/>
+        <v>14.121237150058576</v>
+      </c>
+      <c r="S56" s="62">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S56" s="40">
-        <f>+IF((4+'Primer Bimestre'!V56+P56)&lt;9,1,0)</f>
+      <c r="T56" s="62">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T56" s="77"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E57" s="51">
         <f>AVERAGE(E2:E56)</f>
-        <v>3.6527272727272728</v>
+        <v>3.8436363636363637</v>
       </c>
       <c r="F57" s="51">
         <f>AVERAGE(F2:F56)</f>
-        <v>4.4245454545454548</v>
+        <v>4.51</v>
       </c>
       <c r="G57" s="51">
         <f>AVERAGE(G2:G56)</f>
-        <v>7.9454545454545453</v>
+        <v>8.1</v>
       </c>
       <c r="H57" s="51">
         <f>AVERAGE(H2:H56)</f>
-        <v>6.163636363636364</v>
+        <v>6.1727272727272728</v>
       </c>
       <c r="I57"/>
-      <c r="S57" s="84"/>
-      <c r="T57" s="84"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="76"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T57">
+    <sortState ref="A2:T57">
+      <sortCondition ref="A1:A57"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>